--- a/t1_confection/A1_Outputs/A-O_Demand_COMPLETED.xlsx
+++ b/t1_confection/A1_Outputs/A-O_Demand_COMPLETED.xlsx
@@ -2851,102 +2851,6 @@
       <c r="K18">
         <v>4.8415</v>
       </c>
-      <c r="L18">
-        <v>4.944</v>
-      </c>
-      <c r="M18">
-        <v>3.7278</v>
-      </c>
-      <c r="N18">
-        <v>4.3093</v>
-      </c>
-      <c r="O18">
-        <v>4.9471</v>
-      </c>
-      <c r="P18">
-        <v>5.083</v>
-      </c>
-      <c r="Q18">
-        <v>5.2227</v>
-      </c>
-      <c r="R18">
-        <v>5.3655</v>
-      </c>
-      <c r="S18">
-        <v>5.5115</v>
-      </c>
-      <c r="T18">
-        <v>5.6607</v>
-      </c>
-      <c r="U18">
-        <v>5.8133</v>
-      </c>
-      <c r="V18">
-        <v>5.9691</v>
-      </c>
-      <c r="W18">
-        <v>6.1284</v>
-      </c>
-      <c r="X18">
-        <v>6.291</v>
-      </c>
-      <c r="Y18">
-        <v>6.4572</v>
-      </c>
-      <c r="Z18">
-        <v>6.6268</v>
-      </c>
-      <c r="AA18">
-        <v>6.8001</v>
-      </c>
-      <c r="AB18">
-        <v>6.9769</v>
-      </c>
-      <c r="AC18">
-        <v>7.1575</v>
-      </c>
-      <c r="AD18">
-        <v>7.3417</v>
-      </c>
-      <c r="AE18">
-        <v>7.5297</v>
-      </c>
-      <c r="AF18">
-        <v>7.7215</v>
-      </c>
-      <c r="AG18">
-        <v>7.9171</v>
-      </c>
-      <c r="AH18">
-        <v>8.1167</v>
-      </c>
-      <c r="AI18">
-        <v>8.3202</v>
-      </c>
-      <c r="AJ18">
-        <v>8.5276</v>
-      </c>
-      <c r="AK18">
-        <v>8.7392</v>
-      </c>
-      <c r="AL18">
-        <v>8.954700000000001</v>
-      </c>
-      <c r="AM18">
-        <v>9.1745</v>
-      </c>
-      <c r="AN18">
-        <v>9.398300000000001</v>
-      </c>
-      <c r="AO18">
-        <v>9.6264</v>
-      </c>
-      <c r="AP18">
-        <v>9.858700000000001</v>
-      </c>
-      <c r="AQ18">
-        <v>10.0953</v>
-      </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
@@ -2979,102 +2883,6 @@
       <c r="K19">
         <v>9.601100000000001</v>
       </c>
-      <c r="L19">
-        <v>9.804</v>
-      </c>
-      <c r="M19">
-        <v>7.3922</v>
-      </c>
-      <c r="N19">
-        <v>8.545400000000001</v>
-      </c>
-      <c r="O19">
-        <v>9.8102</v>
-      </c>
-      <c r="P19">
-        <v>10.0797</v>
-      </c>
-      <c r="Q19">
-        <v>10.3567</v>
-      </c>
-      <c r="R19">
-        <v>10.6399</v>
-      </c>
-      <c r="S19">
-        <v>10.9295</v>
-      </c>
-      <c r="T19">
-        <v>11.2254</v>
-      </c>
-      <c r="U19">
-        <v>11.5279</v>
-      </c>
-      <c r="V19">
-        <v>11.8369</v>
-      </c>
-      <c r="W19">
-        <v>12.1527</v>
-      </c>
-      <c r="X19">
-        <v>12.4753</v>
-      </c>
-      <c r="Y19">
-        <v>12.8048</v>
-      </c>
-      <c r="Z19">
-        <v>13.1412</v>
-      </c>
-      <c r="AA19">
-        <v>13.4847</v>
-      </c>
-      <c r="AB19">
-        <v>13.8355</v>
-      </c>
-      <c r="AC19">
-        <v>14.1934</v>
-      </c>
-      <c r="AD19">
-        <v>14.5588</v>
-      </c>
-      <c r="AE19">
-        <v>14.9316</v>
-      </c>
-      <c r="AF19">
-        <v>15.3119</v>
-      </c>
-      <c r="AG19">
-        <v>15.6999</v>
-      </c>
-      <c r="AH19">
-        <v>16.0956</v>
-      </c>
-      <c r="AI19">
-        <v>16.4991</v>
-      </c>
-      <c r="AJ19">
-        <v>16.9106</v>
-      </c>
-      <c r="AK19">
-        <v>17.33</v>
-      </c>
-      <c r="AL19">
-        <v>17.7575</v>
-      </c>
-      <c r="AM19">
-        <v>18.1932</v>
-      </c>
-      <c r="AN19">
-        <v>18.6372</v>
-      </c>
-      <c r="AO19">
-        <v>19.0894</v>
-      </c>
-      <c r="AP19">
-        <v>19.5501</v>
-      </c>
-      <c r="AQ19">
-        <v>20.0193</v>
-      </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
@@ -3107,102 +2915,6 @@
       <c r="K20">
         <v>3.2712</v>
       </c>
-      <c r="L20">
-        <v>3.3411</v>
-      </c>
-      <c r="M20">
-        <v>2.5192</v>
-      </c>
-      <c r="N20">
-        <v>2.9122</v>
-      </c>
-      <c r="O20">
-        <v>3.3432</v>
-      </c>
-      <c r="P20">
-        <v>3.435</v>
-      </c>
-      <c r="Q20">
-        <v>3.5294</v>
-      </c>
-      <c r="R20">
-        <v>3.626</v>
-      </c>
-      <c r="S20">
-        <v>3.7246</v>
-      </c>
-      <c r="T20">
-        <v>3.8255</v>
-      </c>
-      <c r="U20">
-        <v>3.9286</v>
-      </c>
-      <c r="V20">
-        <v>4.0339</v>
-      </c>
-      <c r="W20">
-        <v>4.1415</v>
-      </c>
-      <c r="X20">
-        <v>4.2514</v>
-      </c>
-      <c r="Y20">
-        <v>4.3637</v>
-      </c>
-      <c r="Z20">
-        <v>4.4784</v>
-      </c>
-      <c r="AA20">
-        <v>4.5954</v>
-      </c>
-      <c r="AB20">
-        <v>4.7149</v>
-      </c>
-      <c r="AC20">
-        <v>4.8369</v>
-      </c>
-      <c r="AD20">
-        <v>4.9614</v>
-      </c>
-      <c r="AE20">
-        <v>5.0885</v>
-      </c>
-      <c r="AF20">
-        <v>5.2181</v>
-      </c>
-      <c r="AG20">
-        <v>5.3503</v>
-      </c>
-      <c r="AH20">
-        <v>5.4852</v>
-      </c>
-      <c r="AI20">
-        <v>5.6227</v>
-      </c>
-      <c r="AJ20">
-        <v>5.7629</v>
-      </c>
-      <c r="AK20">
-        <v>5.9058</v>
-      </c>
-      <c r="AL20">
-        <v>6.0515</v>
-      </c>
-      <c r="AM20">
-        <v>6.2</v>
-      </c>
-      <c r="AN20">
-        <v>6.3513</v>
-      </c>
-      <c r="AO20">
-        <v>6.5054</v>
-      </c>
-      <c r="AP20">
-        <v>6.6624</v>
-      </c>
-      <c r="AQ20">
-        <v>6.8223</v>
-      </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
@@ -3366,102 +3078,6 @@
       <c r="K22">
         <v>0.4351</v>
       </c>
-      <c r="L22">
-        <v>0.4443</v>
-      </c>
-      <c r="M22">
-        <v>0.335</v>
-      </c>
-      <c r="N22">
-        <v>0.3873</v>
-      </c>
-      <c r="O22">
-        <v>0.4446</v>
-      </c>
-      <c r="P22">
-        <v>0.4568</v>
-      </c>
-      <c r="Q22">
-        <v>0.4693</v>
-      </c>
-      <c r="R22">
-        <v>0.4822</v>
-      </c>
-      <c r="S22">
-        <v>0.4953</v>
-      </c>
-      <c r="T22">
-        <v>0.5087</v>
-      </c>
-      <c r="U22">
-        <v>0.5224</v>
-      </c>
-      <c r="V22">
-        <v>0.5364</v>
-      </c>
-      <c r="W22">
-        <v>0.5507</v>
-      </c>
-      <c r="X22">
-        <v>0.5653</v>
-      </c>
-      <c r="Y22">
-        <v>0.5803</v>
-      </c>
-      <c r="Z22">
-        <v>0.5955</v>
-      </c>
-      <c r="AA22">
-        <v>0.6111</v>
-      </c>
-      <c r="AB22">
-        <v>0.627</v>
-      </c>
-      <c r="AC22">
-        <v>0.6432</v>
-      </c>
-      <c r="AD22">
-        <v>0.6598000000000001</v>
-      </c>
-      <c r="AE22">
-        <v>0.6767</v>
-      </c>
-      <c r="AF22">
-        <v>0.6939</v>
-      </c>
-      <c r="AG22">
-        <v>0.7115</v>
-      </c>
-      <c r="AH22">
-        <v>0.7294</v>
-      </c>
-      <c r="AI22">
-        <v>0.7477</v>
-      </c>
-      <c r="AJ22">
-        <v>0.7663</v>
-      </c>
-      <c r="AK22">
-        <v>0.7853</v>
-      </c>
-      <c r="AL22">
-        <v>0.8047</v>
-      </c>
-      <c r="AM22">
-        <v>0.8245</v>
-      </c>
-      <c r="AN22">
-        <v>0.8446</v>
-      </c>
-      <c r="AO22">
-        <v>0.8651</v>
-      </c>
-      <c r="AP22">
-        <v>0.886</v>
-      </c>
-      <c r="AQ22">
-        <v>0.9072</v>
-      </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
@@ -3494,102 +3110,6 @@
       <c r="K23">
         <v>0.4004</v>
       </c>
-      <c r="L23">
-        <v>0.4088</v>
-      </c>
-      <c r="M23">
-        <v>0.3082</v>
-      </c>
-      <c r="N23">
-        <v>0.3563</v>
-      </c>
-      <c r="O23">
-        <v>0.409</v>
-      </c>
-      <c r="P23">
-        <v>0.4203</v>
-      </c>
-      <c r="Q23">
-        <v>0.4318</v>
-      </c>
-      <c r="R23">
-        <v>0.4436</v>
-      </c>
-      <c r="S23">
-        <v>0.4557</v>
-      </c>
-      <c r="T23">
-        <v>0.468</v>
-      </c>
-      <c r="U23">
-        <v>0.4807</v>
-      </c>
-      <c r="V23">
-        <v>0.4935</v>
-      </c>
-      <c r="W23">
-        <v>0.5067</v>
-      </c>
-      <c r="X23">
-        <v>0.5202</v>
-      </c>
-      <c r="Y23">
-        <v>0.5339</v>
-      </c>
-      <c r="Z23">
-        <v>0.5479000000000001</v>
-      </c>
-      <c r="AA23">
-        <v>0.5622</v>
-      </c>
-      <c r="AB23">
-        <v>0.5769</v>
-      </c>
-      <c r="AC23">
-        <v>0.5918</v>
-      </c>
-      <c r="AD23">
-        <v>0.607</v>
-      </c>
-      <c r="AE23">
-        <v>0.6226</v>
-      </c>
-      <c r="AF23">
-        <v>0.6384</v>
-      </c>
-      <c r="AG23">
-        <v>0.6546</v>
-      </c>
-      <c r="AH23">
-        <v>0.6711</v>
-      </c>
-      <c r="AI23">
-        <v>0.6879</v>
-      </c>
-      <c r="AJ23">
-        <v>0.7050999999999999</v>
-      </c>
-      <c r="AK23">
-        <v>0.7226</v>
-      </c>
-      <c r="AL23">
-        <v>0.7403999999999999</v>
-      </c>
-      <c r="AM23">
-        <v>0.7586000000000001</v>
-      </c>
-      <c r="AN23">
-        <v>0.7771</v>
-      </c>
-      <c r="AO23">
-        <v>0.7959000000000001</v>
-      </c>
-      <c r="AP23">
-        <v>0.8151</v>
-      </c>
-      <c r="AQ23">
-        <v>0.8347</v>
-      </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
@@ -3622,102 +3142,6 @@
       <c r="K24">
         <v>0.5518999999999999</v>
       </c>
-      <c r="L24">
-        <v>0.5638</v>
-      </c>
-      <c r="M24">
-        <v>0.4251</v>
-      </c>
-      <c r="N24">
-        <v>0.4915</v>
-      </c>
-      <c r="O24">
-        <v>0.5642</v>
-      </c>
-      <c r="P24">
-        <v>0.5797</v>
-      </c>
-      <c r="Q24">
-        <v>0.5956</v>
-      </c>
-      <c r="R24">
-        <v>0.6119</v>
-      </c>
-      <c r="S24">
-        <v>0.6286</v>
-      </c>
-      <c r="T24">
-        <v>0.6456</v>
-      </c>
-      <c r="U24">
-        <v>0.663</v>
-      </c>
-      <c r="V24">
-        <v>0.6808</v>
-      </c>
-      <c r="W24">
-        <v>0.6989</v>
-      </c>
-      <c r="X24">
-        <v>0.7175</v>
-      </c>
-      <c r="Y24">
-        <v>0.7364000000000001</v>
-      </c>
-      <c r="Z24">
-        <v>0.7558</v>
-      </c>
-      <c r="AA24">
-        <v>0.7755</v>
-      </c>
-      <c r="AB24">
-        <v>0.7957</v>
-      </c>
-      <c r="AC24">
-        <v>0.8163</v>
-      </c>
-      <c r="AD24">
-        <v>0.8373</v>
-      </c>
-      <c r="AE24">
-        <v>0.8587</v>
-      </c>
-      <c r="AF24">
-        <v>0.8806</v>
-      </c>
-      <c r="AG24">
-        <v>0.9029</v>
-      </c>
-      <c r="AH24">
-        <v>0.9257</v>
-      </c>
-      <c r="AI24">
-        <v>0.9489</v>
-      </c>
-      <c r="AJ24">
-        <v>0.9725</v>
-      </c>
-      <c r="AK24">
-        <v>0.9967</v>
-      </c>
-      <c r="AL24">
-        <v>1.0213</v>
-      </c>
-      <c r="AM24">
-        <v>1.0463</v>
-      </c>
-      <c r="AN24">
-        <v>1.0718</v>
-      </c>
-      <c r="AO24">
-        <v>1.0979</v>
-      </c>
-      <c r="AP24">
-        <v>1.1243</v>
-      </c>
-      <c r="AQ24">
-        <v>1.1513</v>
-      </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
@@ -3750,102 +3174,6 @@
       <c r="K25">
         <v>0.1</v>
       </c>
-      <c r="L25">
-        <v>0.1</v>
-      </c>
-      <c r="M25">
-        <v>0.1</v>
-      </c>
-      <c r="N25">
-        <v>0.1</v>
-      </c>
-      <c r="O25">
-        <v>0.1</v>
-      </c>
-      <c r="P25">
-        <v>0.1</v>
-      </c>
-      <c r="Q25">
-        <v>0.1</v>
-      </c>
-      <c r="R25">
-        <v>0.1</v>
-      </c>
-      <c r="S25">
-        <v>0.1</v>
-      </c>
-      <c r="T25">
-        <v>0.1</v>
-      </c>
-      <c r="U25">
-        <v>0.1</v>
-      </c>
-      <c r="V25">
-        <v>0.1</v>
-      </c>
-      <c r="W25">
-        <v>0.1</v>
-      </c>
-      <c r="X25">
-        <v>0.1</v>
-      </c>
-      <c r="Y25">
-        <v>0.1</v>
-      </c>
-      <c r="Z25">
-        <v>0.1</v>
-      </c>
-      <c r="AA25">
-        <v>0.1</v>
-      </c>
-      <c r="AB25">
-        <v>0.1</v>
-      </c>
-      <c r="AC25">
-        <v>0.1</v>
-      </c>
-      <c r="AD25">
-        <v>0.1</v>
-      </c>
-      <c r="AE25">
-        <v>0.1</v>
-      </c>
-      <c r="AF25">
-        <v>0.1</v>
-      </c>
-      <c r="AG25">
-        <v>0.1</v>
-      </c>
-      <c r="AH25">
-        <v>0.1</v>
-      </c>
-      <c r="AI25">
-        <v>0.1</v>
-      </c>
-      <c r="AJ25">
-        <v>0.1</v>
-      </c>
-      <c r="AK25">
-        <v>0.1</v>
-      </c>
-      <c r="AL25">
-        <v>0.1</v>
-      </c>
-      <c r="AM25">
-        <v>0.1</v>
-      </c>
-      <c r="AN25">
-        <v>0.1</v>
-      </c>
-      <c r="AO25">
-        <v>0.1</v>
-      </c>
-      <c r="AP25">
-        <v>0.1</v>
-      </c>
-      <c r="AQ25">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
@@ -3882,100 +3210,100 @@
         <v>20.8523</v>
       </c>
       <c r="L26">
-        <v>21.3391</v>
+        <v>20.8523</v>
       </c>
       <c r="M26">
-        <v>20.4511</v>
+        <v>20.8523</v>
       </c>
       <c r="N26">
-        <v>21.2606</v>
+        <v>20.8523</v>
       </c>
       <c r="O26">
-        <v>22.0591</v>
+        <v>20.8523</v>
       </c>
       <c r="P26">
-        <v>22.7308</v>
+        <v>20.8523</v>
       </c>
       <c r="Q26">
-        <v>23.4229</v>
+        <v>20.8523</v>
       </c>
       <c r="R26">
-        <v>24.1361</v>
+        <v>20.8523</v>
       </c>
       <c r="S26">
-        <v>24.8711</v>
+        <v>20.8523</v>
       </c>
       <c r="T26">
-        <v>25.6284</v>
+        <v>20.8523</v>
       </c>
       <c r="U26">
-        <v>26.4088</v>
+        <v>20.8523</v>
       </c>
       <c r="V26">
-        <v>27.2129</v>
+        <v>20.8523</v>
       </c>
       <c r="W26">
-        <v>28.0416</v>
+        <v>20.8523</v>
       </c>
       <c r="X26">
-        <v>28.8954</v>
+        <v>20.8523</v>
       </c>
       <c r="Y26">
-        <v>29.7753</v>
+        <v>20.8523</v>
       </c>
       <c r="Z26">
-        <v>30.682</v>
+        <v>20.8523</v>
       </c>
       <c r="AA26">
-        <v>31.6162</v>
+        <v>20.8523</v>
       </c>
       <c r="AB26">
-        <v>32.5789</v>
+        <v>20.8523</v>
       </c>
       <c r="AC26">
-        <v>33.571</v>
+        <v>20.8523</v>
       </c>
       <c r="AD26">
-        <v>34.5932</v>
+        <v>20.8523</v>
       </c>
       <c r="AE26">
-        <v>35.6466</v>
+        <v>20.8523</v>
       </c>
       <c r="AF26">
-        <v>36.732</v>
+        <v>20.8523</v>
       </c>
       <c r="AG26">
-        <v>37.8505</v>
+        <v>20.8523</v>
       </c>
       <c r="AH26">
-        <v>39.003</v>
+        <v>20.8523</v>
       </c>
       <c r="AI26">
-        <v>40.1907</v>
+        <v>20.8523</v>
       </c>
       <c r="AJ26">
-        <v>41.4145</v>
+        <v>20.8523</v>
       </c>
       <c r="AK26">
-        <v>42.6756</v>
+        <v>20.8523</v>
       </c>
       <c r="AL26">
-        <v>43.975</v>
+        <v>20.8523</v>
       </c>
       <c r="AM26">
-        <v>45.3141</v>
+        <v>20.8523</v>
       </c>
       <c r="AN26">
-        <v>46.6939</v>
+        <v>20.8523</v>
       </c>
       <c r="AO26">
-        <v>48.1157</v>
+        <v>20.8523</v>
       </c>
       <c r="AP26">
-        <v>49.5808</v>
+        <v>20.8523</v>
       </c>
       <c r="AQ26">
-        <v>51.0906</v>
+        <v>20.8523</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -4009,102 +3337,6 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
@@ -4137,102 +3369,6 @@
       <c r="K28">
         <v>1.8685</v>
       </c>
-      <c r="L28">
-        <v>1.9121</v>
-      </c>
-      <c r="M28">
-        <v>1.8325</v>
-      </c>
-      <c r="N28">
-        <v>1.9051</v>
-      </c>
-      <c r="O28">
-        <v>1.9766</v>
-      </c>
-      <c r="P28">
-        <v>2.0368</v>
-      </c>
-      <c r="Q28">
-        <v>2.0988</v>
-      </c>
-      <c r="R28">
-        <v>2.1627</v>
-      </c>
-      <c r="S28">
-        <v>2.2286</v>
-      </c>
-      <c r="T28">
-        <v>2.2965</v>
-      </c>
-      <c r="U28">
-        <v>2.3664</v>
-      </c>
-      <c r="V28">
-        <v>2.4384</v>
-      </c>
-      <c r="W28">
-        <v>2.5127</v>
-      </c>
-      <c r="X28">
-        <v>2.5892</v>
-      </c>
-      <c r="Y28">
-        <v>2.668</v>
-      </c>
-      <c r="Z28">
-        <v>2.7493</v>
-      </c>
-      <c r="AA28">
-        <v>2.833</v>
-      </c>
-      <c r="AB28">
-        <v>2.9193</v>
-      </c>
-      <c r="AC28">
-        <v>3.0082</v>
-      </c>
-      <c r="AD28">
-        <v>3.0997</v>
-      </c>
-      <c r="AE28">
-        <v>3.1941</v>
-      </c>
-      <c r="AF28">
-        <v>3.2914</v>
-      </c>
-      <c r="AG28">
-        <v>3.3916</v>
-      </c>
-      <c r="AH28">
-        <v>3.4949</v>
-      </c>
-      <c r="AI28">
-        <v>3.6013</v>
-      </c>
-      <c r="AJ28">
-        <v>3.711</v>
-      </c>
-      <c r="AK28">
-        <v>3.824</v>
-      </c>
-      <c r="AL28">
-        <v>3.9404</v>
-      </c>
-      <c r="AM28">
-        <v>4.0604</v>
-      </c>
-      <c r="AN28">
-        <v>4.184</v>
-      </c>
-      <c r="AO28">
-        <v>4.3114</v>
-      </c>
-      <c r="AP28">
-        <v>4.4427</v>
-      </c>
-      <c r="AQ28">
-        <v>4.578</v>
-      </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
@@ -4269,100 +3405,100 @@
         <v>6.3187</v>
       </c>
       <c r="L29">
-        <v>6.4662</v>
+        <v>6.3187</v>
       </c>
       <c r="M29">
-        <v>6.1971</v>
+        <v>6.3187</v>
       </c>
       <c r="N29">
-        <v>6.4424</v>
+        <v>6.3187</v>
       </c>
       <c r="O29">
-        <v>6.6844</v>
+        <v>6.3187</v>
       </c>
       <c r="P29">
-        <v>6.8879</v>
+        <v>6.3187</v>
       </c>
       <c r="Q29">
-        <v>7.0977</v>
+        <v>6.3187</v>
       </c>
       <c r="R29">
-        <v>7.3138</v>
+        <v>6.3187</v>
       </c>
       <c r="S29">
-        <v>7.5365</v>
+        <v>6.3187</v>
       </c>
       <c r="T29">
-        <v>7.766</v>
+        <v>6.3187</v>
       </c>
       <c r="U29">
-        <v>8.0025</v>
+        <v>6.3187</v>
       </c>
       <c r="V29">
-        <v>8.2461</v>
+        <v>6.3187</v>
       </c>
       <c r="W29">
-        <v>8.497199999999999</v>
+        <v>6.3187</v>
       </c>
       <c r="X29">
-        <v>8.756</v>
+        <v>6.3187</v>
       </c>
       <c r="Y29">
-        <v>9.022600000000001</v>
+        <v>6.3187</v>
       </c>
       <c r="Z29">
-        <v>9.2973</v>
+        <v>6.3187</v>
       </c>
       <c r="AA29">
-        <v>9.580399999999999</v>
+        <v>6.3187</v>
       </c>
       <c r="AB29">
-        <v>9.8721</v>
+        <v>6.3187</v>
       </c>
       <c r="AC29">
-        <v>10.1728</v>
+        <v>6.3187</v>
       </c>
       <c r="AD29">
-        <v>10.4825</v>
+        <v>6.3187</v>
       </c>
       <c r="AE29">
-        <v>10.8017</v>
+        <v>6.3187</v>
       </c>
       <c r="AF29">
-        <v>11.1306</v>
+        <v>6.3187</v>
       </c>
       <c r="AG29">
-        <v>11.4695</v>
+        <v>6.3187</v>
       </c>
       <c r="AH29">
-        <v>11.8188</v>
+        <v>6.3187</v>
       </c>
       <c r="AI29">
-        <v>12.1787</v>
+        <v>6.3187</v>
       </c>
       <c r="AJ29">
-        <v>12.5495</v>
+        <v>6.3187</v>
       </c>
       <c r="AK29">
-        <v>12.9316</v>
+        <v>6.3187</v>
       </c>
       <c r="AL29">
-        <v>13.3254</v>
+        <v>6.3187</v>
       </c>
       <c r="AM29">
-        <v>13.7312</v>
+        <v>6.3187</v>
       </c>
       <c r="AN29">
-        <v>14.1493</v>
+        <v>6.3187</v>
       </c>
       <c r="AO29">
-        <v>14.5801</v>
+        <v>6.3187</v>
       </c>
       <c r="AP29">
-        <v>15.0241</v>
+        <v>6.3187</v>
       </c>
       <c r="AQ29">
-        <v>15.4816</v>
+        <v>6.3187</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4396,102 +3532,6 @@
       <c r="K30">
         <v>3.3972</v>
       </c>
-      <c r="L30">
-        <v>3.4765</v>
-      </c>
-      <c r="M30">
-        <v>3.3318</v>
-      </c>
-      <c r="N30">
-        <v>3.4637</v>
-      </c>
-      <c r="O30">
-        <v>3.5938</v>
-      </c>
-      <c r="P30">
-        <v>3.7032</v>
-      </c>
-      <c r="Q30">
-        <v>3.816</v>
-      </c>
-      <c r="R30">
-        <v>3.9322</v>
-      </c>
-      <c r="S30">
-        <v>4.0519</v>
-      </c>
-      <c r="T30">
-        <v>4.1753</v>
-      </c>
-      <c r="U30">
-        <v>4.3024</v>
-      </c>
-      <c r="V30">
-        <v>4.4334</v>
-      </c>
-      <c r="W30">
-        <v>4.5684</v>
-      </c>
-      <c r="X30">
-        <v>4.7075</v>
-      </c>
-      <c r="Y30">
-        <v>4.8509</v>
-      </c>
-      <c r="Z30">
-        <v>4.9985</v>
-      </c>
-      <c r="AA30">
-        <v>5.1508</v>
-      </c>
-      <c r="AB30">
-        <v>5.3076</v>
-      </c>
-      <c r="AC30">
-        <v>5.4692</v>
-      </c>
-      <c r="AD30">
-        <v>5.6358</v>
-      </c>
-      <c r="AE30">
-        <v>5.8074</v>
-      </c>
-      <c r="AF30">
-        <v>5.9842</v>
-      </c>
-      <c r="AG30">
-        <v>6.1664</v>
-      </c>
-      <c r="AH30">
-        <v>6.3542</v>
-      </c>
-      <c r="AI30">
-        <v>6.5477</v>
-      </c>
-      <c r="AJ30">
-        <v>6.747</v>
-      </c>
-      <c r="AK30">
-        <v>6.9525</v>
-      </c>
-      <c r="AL30">
-        <v>7.1642</v>
-      </c>
-      <c r="AM30">
-        <v>7.3824</v>
-      </c>
-      <c r="AN30">
-        <v>7.6072</v>
-      </c>
-      <c r="AO30">
-        <v>7.8388</v>
-      </c>
-      <c r="AP30">
-        <v>8.077500000000001</v>
-      </c>
-      <c r="AQ30">
-        <v>8.323399999999999</v>
-      </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
@@ -4524,338 +3564,8 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BAD73B84EC2FBA4AB6031CFB79C3D0E0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="371947e8e2760f0f8e8f59c32e4ad2a0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4f98862-adfd-4d9c-a945-852f80f0eb51" xmlns:ns3="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a059f82d0b353b49693c069f8347eedf" ns2:_="" ns3:_="">
-    <xsd:import namespace="c4f98862-adfd-4d9c-a945-852f80f0eb51"/>
-    <xsd:import namespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c4f98862-adfd-4d9c-a945-852f80f0eb51" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC1BD606-9BB8-4777-8C7D-DC4CC2F70301}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B71CED4F-9F6A-4638-AFB8-BB6B336B07BA}"/>
 </file>
--- a/t1_confection/A1_Outputs/A-O_Demand_COMPLETED.xlsx
+++ b/t1_confection/A1_Outputs/A-O_Demand_COMPLETED.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="169">
   <si>
     <t>Demand/Share</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>Use freight file</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
   <si>
     <t>Gvkm</t>
@@ -1133,6 +1136,9 @@
       <c r="AO2">
         <v>2.143</v>
       </c>
+      <c r="AP2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
@@ -1258,6 +1264,9 @@
       <c r="AO3">
         <v>0.0028</v>
       </c>
+      <c r="AP3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
@@ -1383,6 +1392,9 @@
       <c r="AO4">
         <v>0</v>
       </c>
+      <c r="AP4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
@@ -1508,6 +1520,9 @@
       <c r="AO5">
         <v>4.342</v>
       </c>
+      <c r="AP5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
@@ -1633,6 +1648,9 @@
       <c r="AO6">
         <v>31.7837</v>
       </c>
+      <c r="AP6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:42">
       <c r="A7" t="s">
@@ -1758,6 +1776,9 @@
       <c r="AO7">
         <v>0.0047</v>
       </c>
+      <c r="AP7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" t="s">
@@ -1883,6 +1904,9 @@
       <c r="AO8">
         <v>11.9093</v>
       </c>
+      <c r="AP8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" t="s">
@@ -2008,6 +2032,9 @@
       <c r="AO9">
         <v>0.1566</v>
       </c>
+      <c r="AP9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:42">
       <c r="A10" t="s">
@@ -2133,6 +2160,9 @@
       <c r="AO10">
         <v>7.0591</v>
       </c>
+      <c r="AP10" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
@@ -2258,6 +2288,9 @@
       <c r="AO11">
         <v>4.0687</v>
       </c>
+      <c r="AP11" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
@@ -2383,6 +2416,9 @@
       <c r="AO12">
         <v>44.6216</v>
       </c>
+      <c r="AP12" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
@@ -2508,6 +2544,9 @@
       <c r="AO13">
         <v>0</v>
       </c>
+      <c r="AP13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
@@ -2633,6 +2672,9 @@
       <c r="AO14">
         <v>34.1983</v>
       </c>
+      <c r="AP14" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
@@ -2758,6 +2800,9 @@
       <c r="AO15">
         <v>15.8093</v>
       </c>
+      <c r="AP15" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" t="s">
@@ -2883,8 +2928,11 @@
       <c r="AO16">
         <v>6.7148</v>
       </c>
+      <c r="AP16" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3008,8 +3056,11 @@
       <c r="AO17">
         <v>38.2945</v>
       </c>
+      <c r="AP17" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3133,8 +3184,11 @@
       <c r="AO18">
         <v>39.7729</v>
       </c>
+      <c r="AP18" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3258,8 +3312,11 @@
       <c r="AO19">
         <v>44.0176</v>
       </c>
+      <c r="AP19" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3383,8 +3440,11 @@
       <c r="AO20">
         <v>0.9261</v>
       </c>
+      <c r="AP20" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3508,8 +3568,11 @@
       <c r="AO21">
         <v>38.0187</v>
       </c>
+      <c r="AP21" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3633,8 +3696,11 @@
       <c r="AO22">
         <v>0</v>
       </c>
+      <c r="AP22" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:42">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3758,8 +3824,11 @@
       <c r="AO23">
         <v>3.5345</v>
       </c>
+      <c r="AP23" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:42">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3883,8 +3952,11 @@
       <c r="AO24">
         <v>1.3765</v>
       </c>
+      <c r="AP24" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:42">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4008,8 +4080,11 @@
       <c r="AO25">
         <v>2.8789</v>
       </c>
+      <c r="AP25" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:42">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4133,8 +4208,11 @@
       <c r="AO26">
         <v>41.8932</v>
       </c>
+      <c r="AP26" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:42">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -4258,8 +4336,11 @@
       <c r="AO27">
         <v>0.1033</v>
       </c>
+      <c r="AP27" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:42">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -4383,8 +4464,11 @@
       <c r="AO28">
         <v>0</v>
       </c>
+      <c r="AP28" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:42">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -4508,8 +4592,11 @@
       <c r="AO29">
         <v>0</v>
       </c>
+      <c r="AP29" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:42">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -4633,8 +4720,11 @@
       <c r="AO30">
         <v>0</v>
       </c>
+      <c r="AP30" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:42">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -4758,8 +4848,11 @@
       <c r="AO31">
         <v>0</v>
       </c>
+      <c r="AP31" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:42">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -4883,8 +4976,11 @@
       <c r="AO32">
         <v>0</v>
       </c>
+      <c r="AP32" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:42">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -5008,8 +5104,11 @@
       <c r="AO33">
         <v>5.8117</v>
       </c>
+      <c r="AP33" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:42">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -5133,8 +5232,11 @@
       <c r="AO34">
         <v>8.881500000000001</v>
       </c>
+      <c r="AP34" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:42">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -5258,8 +5360,11 @@
       <c r="AO35">
         <v>0</v>
       </c>
+      <c r="AP35" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:42">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -5383,8 +5488,11 @@
       <c r="AO36">
         <v>0.7397</v>
       </c>
+      <c r="AP36" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:42">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -5508,8 +5616,11 @@
       <c r="AO37">
         <v>0.9041</v>
       </c>
+      <c r="AP37" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -5633,8 +5744,11 @@
       <c r="AO38">
         <v>3.2373</v>
       </c>
+      <c r="AP38" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:42">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -5758,8 +5872,11 @@
       <c r="AO39">
         <v>0.0369</v>
       </c>
+      <c r="AP39" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:42">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -5883,8 +6000,11 @@
       <c r="AO40">
         <v>0.1089</v>
       </c>
+      <c r="AP40" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:42">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -6008,8 +6128,11 @@
       <c r="AO41">
         <v>0.5583</v>
       </c>
+      <c r="AP41" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:42">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -6133,8 +6256,11 @@
       <c r="AO42">
         <v>0.5356</v>
       </c>
+      <c r="AP42" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:42">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -6258,8 +6384,11 @@
       <c r="AO43">
         <v>0.3308</v>
       </c>
+      <c r="AP43" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:42">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -6383,8 +6512,11 @@
       <c r="AO44">
         <v>2.3564</v>
       </c>
+      <c r="AP44" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:42">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -6508,8 +6640,11 @@
       <c r="AO45">
         <v>0.3097</v>
       </c>
+      <c r="AP45" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:42">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -6633,8 +6768,11 @@
       <c r="AO46">
         <v>2.8044</v>
       </c>
+      <c r="AP46" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:42">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -6758,8 +6896,11 @@
       <c r="AO47">
         <v>0.4896</v>
       </c>
+      <c r="AP47" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:42">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -6883,8 +7024,11 @@
       <c r="AO48">
         <v>0.0576</v>
       </c>
+      <c r="AP48" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:42">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -7008,8 +7152,11 @@
       <c r="AO49">
         <v>0.0386</v>
       </c>
+      <c r="AP49" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:42">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -7133,8 +7280,11 @@
       <c r="AO50">
         <v>0.06560000000000001</v>
       </c>
+      <c r="AP50" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:42">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -7258,8 +7408,11 @@
       <c r="AO51">
         <v>0.0543</v>
       </c>
+      <c r="AP51" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:42">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -7383,8 +7536,11 @@
       <c r="AO52">
         <v>0.003</v>
       </c>
+      <c r="AP52" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:42">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -7508,8 +7664,11 @@
       <c r="AO53">
         <v>0.0443</v>
       </c>
+      <c r="AP53" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:42">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -7633,8 +7792,11 @@
       <c r="AO54">
         <v>0.0634</v>
       </c>
+      <c r="AP54" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:42">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -7758,8 +7920,11 @@
       <c r="AO55">
         <v>0</v>
       </c>
+      <c r="AP55" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:42">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -7883,8 +8048,11 @@
       <c r="AO56">
         <v>0.1308</v>
       </c>
+      <c r="AP56" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:42">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -8008,8 +8176,11 @@
       <c r="AO57">
         <v>0.0035</v>
       </c>
+      <c r="AP57" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:42">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -8133,8 +8304,11 @@
       <c r="AO58">
         <v>0.0018</v>
       </c>
+      <c r="AP58" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:42">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -8258,8 +8432,11 @@
       <c r="AO59">
         <v>0.0781</v>
       </c>
+      <c r="AP59" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:42">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -8383,8 +8560,11 @@
       <c r="AO60">
         <v>0.8793</v>
       </c>
+      <c r="AP60" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:42">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -8508,8 +8688,11 @@
       <c r="AO61">
         <v>0.0024</v>
       </c>
+      <c r="AP61" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:42">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -8633,8 +8816,11 @@
       <c r="AO62">
         <v>0.1559</v>
       </c>
+      <c r="AP62" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:42">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -8758,8 +8944,11 @@
       <c r="AO63">
         <v>0.5138</v>
       </c>
+      <c r="AP63" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:42">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -8882,6 +9071,9 @@
       </c>
       <c r="AO64">
         <v>0.0018</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:42">
@@ -9008,6 +9200,9 @@
       <c r="AO65">
         <v>0.06419999999999999</v>
       </c>
+      <c r="AP65" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="66" spans="1:42">
       <c r="A66" t="s">
@@ -9133,6 +9328,9 @@
       <c r="AO66">
         <v>0</v>
       </c>
+      <c r="AP66" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="67" spans="1:42">
       <c r="A67" t="s">
@@ -9258,6 +9456,9 @@
       <c r="AO67">
         <v>0.1323</v>
       </c>
+      <c r="AP67" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="68" spans="1:42">
       <c r="A68" t="s">
@@ -9383,6 +9584,9 @@
       <c r="AO68">
         <v>0.1255</v>
       </c>
+      <c r="AP68" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="69" spans="1:42">
       <c r="A69" t="s">
@@ -9508,6 +9712,9 @@
       <c r="AO69">
         <v>0</v>
       </c>
+      <c r="AP69" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="70" spans="1:42">
       <c r="A70" t="s">
@@ -9633,6 +9840,9 @@
       <c r="AO70">
         <v>7.6296</v>
       </c>
+      <c r="AP70" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="71" spans="1:42">
       <c r="A71" t="s">
@@ -9758,6 +9968,9 @@
       <c r="AO71">
         <v>2.2653</v>
       </c>
+      <c r="AP71" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="72" spans="1:42">
       <c r="A72" t="s">
@@ -9883,6 +10096,9 @@
       <c r="AO72">
         <v>12.2772</v>
       </c>
+      <c r="AP72" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="73" spans="1:42">
       <c r="A73" t="s">
@@ -10008,6 +10224,9 @@
       <c r="AO73">
         <v>120.5091</v>
       </c>
+      <c r="AP73" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="74" spans="1:42">
       <c r="A74" t="s">
@@ -10134,7 +10353,7 @@
         <v>31.1315</v>
       </c>
       <c r="AP74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:42">
@@ -10262,7 +10481,7 @@
         <v>42.4521</v>
       </c>
       <c r="AP75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:42">
@@ -10390,7 +10609,7 @@
         <v>16.9466</v>
       </c>
       <c r="AP76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:42">
@@ -10517,6 +10736,9 @@
       <c r="AO77">
         <v>58.3383</v>
       </c>
+      <c r="AP77" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="78" spans="1:42">
       <c r="A78" t="s">
@@ -10643,7 +10865,7 @@
         <v>1.5635</v>
       </c>
       <c r="AP78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:42">
@@ -10771,7 +10993,7 @@
         <v>1.3679</v>
       </c>
       <c r="AP79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:42">
@@ -10899,7 +11121,7 @@
         <v>8.279199999999999</v>
       </c>
       <c r="AP80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:42">
@@ -11026,6 +11248,9 @@
       <c r="AO81">
         <v>0</v>
       </c>
+      <c r="AP81" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="82" spans="1:42">
       <c r="A82" t="s">
@@ -11151,6 +11376,9 @@
       <c r="AO82">
         <v>0</v>
       </c>
+      <c r="AP82" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="83" spans="1:42">
       <c r="A83" t="s">
@@ -11276,6 +11504,9 @@
       <c r="AO83">
         <v>29.3402</v>
       </c>
+      <c r="AP83" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="84" spans="1:42">
       <c r="A84" t="s">
@@ -11402,7 +11633,7 @@
         <v>2.0518</v>
       </c>
       <c r="AP84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:42">
@@ -11529,6 +11760,9 @@
       <c r="AO85">
         <v>25.2181</v>
       </c>
+      <c r="AP85" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="86" spans="1:42">
       <c r="A86" t="s">
@@ -11655,7 +11889,7 @@
         <v>2.2597</v>
       </c>
       <c r="AP86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:42">
@@ -11782,6 +12016,9 @@
       <c r="AO87">
         <v>0</v>
       </c>
+      <c r="AP87" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="88" spans="1:42">
       <c r="A88" t="s">
@@ -11907,6 +12144,9 @@
       <c r="AO88">
         <v>31.1644</v>
       </c>
+      <c r="AP88" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="89" spans="1:42">
       <c r="A89" t="s">
@@ -12033,7 +12273,7 @@
         <v>16.7551</v>
       </c>
       <c r="AP89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:42">
@@ -12160,8 +12400,259 @@
       <c r="AO90">
         <v>0</v>
       </c>
+      <c r="AP90" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{884EB391-7650-4D26-96D9-0C1ECDE15E9D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C057D7FE-428D-40AD-9A19-EDF071735928}"/>
 </file>
--- a/t1_confection/A1_Outputs/A-O_Demand_COMPLETED.xlsx
+++ b/t1_confection/A1_Outputs/A-O_Demand_COMPLETED.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="168">
   <si>
     <t>Demand/Share</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>Use freight file</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
   <si>
     <t>Gvkm</t>
@@ -1136,9 +1133,6 @@
       <c r="AO2">
         <v>2.143</v>
       </c>
-      <c r="AP2" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
@@ -1264,9 +1258,6 @@
       <c r="AO3">
         <v>0.0028</v>
       </c>
-      <c r="AP3" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
@@ -1392,9 +1383,6 @@
       <c r="AO4">
         <v>0</v>
       </c>
-      <c r="AP4" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
@@ -1520,9 +1508,6 @@
       <c r="AO5">
         <v>4.342</v>
       </c>
-      <c r="AP5" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
@@ -1648,9 +1633,6 @@
       <c r="AO6">
         <v>31.7837</v>
       </c>
-      <c r="AP6" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="7" spans="1:42">
       <c r="A7" t="s">
@@ -1776,9 +1758,6 @@
       <c r="AO7">
         <v>0.0047</v>
       </c>
-      <c r="AP7" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" t="s">
@@ -1904,9 +1883,6 @@
       <c r="AO8">
         <v>11.9093</v>
       </c>
-      <c r="AP8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" t="s">
@@ -2032,9 +2008,6 @@
       <c r="AO9">
         <v>0.1566</v>
       </c>
-      <c r="AP9" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="10" spans="1:42">
       <c r="A10" t="s">
@@ -2160,9 +2133,6 @@
       <c r="AO10">
         <v>7.0591</v>
       </c>
-      <c r="AP10" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
@@ -2288,9 +2258,6 @@
       <c r="AO11">
         <v>4.0687</v>
       </c>
-      <c r="AP11" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
@@ -2416,9 +2383,6 @@
       <c r="AO12">
         <v>44.6216</v>
       </c>
-      <c r="AP12" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
@@ -2544,9 +2508,6 @@
       <c r="AO13">
         <v>0</v>
       </c>
-      <c r="AP13" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
@@ -2672,9 +2633,6 @@
       <c r="AO14">
         <v>34.1983</v>
       </c>
-      <c r="AP14" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
@@ -2800,9 +2758,6 @@
       <c r="AO15">
         <v>15.8093</v>
       </c>
-      <c r="AP15" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" t="s">
@@ -2928,11 +2883,8 @@
       <c r="AO16">
         <v>6.7148</v>
       </c>
-      <c r="AP16" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3056,11 +3008,8 @@
       <c r="AO17">
         <v>38.2945</v>
       </c>
-      <c r="AP17" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3184,11 +3133,8 @@
       <c r="AO18">
         <v>39.7729</v>
       </c>
-      <c r="AP18" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3312,11 +3258,8 @@
       <c r="AO19">
         <v>44.0176</v>
       </c>
-      <c r="AP19" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3440,11 +3383,8 @@
       <c r="AO20">
         <v>0.9261</v>
       </c>
-      <c r="AP20" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3568,11 +3508,8 @@
       <c r="AO21">
         <v>38.0187</v>
       </c>
-      <c r="AP21" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3696,11 +3633,8 @@
       <c r="AO22">
         <v>0</v>
       </c>
-      <c r="AP22" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3824,11 +3758,8 @@
       <c r="AO23">
         <v>3.5345</v>
       </c>
-      <c r="AP23" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3952,11 +3883,8 @@
       <c r="AO24">
         <v>1.3765</v>
       </c>
-      <c r="AP24" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4080,11 +4008,8 @@
       <c r="AO25">
         <v>2.8789</v>
       </c>
-      <c r="AP25" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4208,11 +4133,8 @@
       <c r="AO26">
         <v>41.8932</v>
       </c>
-      <c r="AP26" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -4336,11 +4258,8 @@
       <c r="AO27">
         <v>0.1033</v>
       </c>
-      <c r="AP27" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -4464,11 +4383,8 @@
       <c r="AO28">
         <v>0</v>
       </c>
-      <c r="AP28" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -4592,11 +4508,8 @@
       <c r="AO29">
         <v>0</v>
       </c>
-      <c r="AP29" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -4720,11 +4633,8 @@
       <c r="AO30">
         <v>0</v>
       </c>
-      <c r="AP30" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -4848,11 +4758,8 @@
       <c r="AO31">
         <v>0</v>
       </c>
-      <c r="AP31" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -4976,11 +4883,8 @@
       <c r="AO32">
         <v>0</v>
       </c>
-      <c r="AP32" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -5104,11 +5008,8 @@
       <c r="AO33">
         <v>5.8117</v>
       </c>
-      <c r="AP33" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -5232,11 +5133,8 @@
       <c r="AO34">
         <v>8.881500000000001</v>
       </c>
-      <c r="AP34" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -5360,11 +5258,8 @@
       <c r="AO35">
         <v>0</v>
       </c>
-      <c r="AP35" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -5488,11 +5383,8 @@
       <c r="AO36">
         <v>0.7397</v>
       </c>
-      <c r="AP36" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -5616,11 +5508,8 @@
       <c r="AO37">
         <v>0.9041</v>
       </c>
-      <c r="AP37" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -5744,11 +5633,8 @@
       <c r="AO38">
         <v>3.2373</v>
       </c>
-      <c r="AP38" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -5872,11 +5758,8 @@
       <c r="AO39">
         <v>0.0369</v>
       </c>
-      <c r="AP39" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -6000,11 +5883,8 @@
       <c r="AO40">
         <v>0.1089</v>
       </c>
-      <c r="AP40" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -6128,11 +6008,8 @@
       <c r="AO41">
         <v>0.5583</v>
       </c>
-      <c r="AP41" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -6256,11 +6133,8 @@
       <c r="AO42">
         <v>0.5356</v>
       </c>
-      <c r="AP42" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -6384,11 +6258,8 @@
       <c r="AO43">
         <v>0.3308</v>
       </c>
-      <c r="AP43" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -6512,11 +6383,8 @@
       <c r="AO44">
         <v>2.3564</v>
       </c>
-      <c r="AP44" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -6640,11 +6508,8 @@
       <c r="AO45">
         <v>0.3097</v>
       </c>
-      <c r="AP45" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -6768,11 +6633,8 @@
       <c r="AO46">
         <v>2.8044</v>
       </c>
-      <c r="AP46" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -6896,11 +6758,8 @@
       <c r="AO47">
         <v>0.4896</v>
       </c>
-      <c r="AP47" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -7024,11 +6883,8 @@
       <c r="AO48">
         <v>0.0576</v>
       </c>
-      <c r="AP48" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="49" spans="1:42">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -7152,11 +7008,8 @@
       <c r="AO49">
         <v>0.0386</v>
       </c>
-      <c r="AP49" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="50" spans="1:42">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -7280,11 +7133,8 @@
       <c r="AO50">
         <v>0.06560000000000001</v>
       </c>
-      <c r="AP50" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="51" spans="1:42">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -7408,11 +7258,8 @@
       <c r="AO51">
         <v>0.0543</v>
       </c>
-      <c r="AP51" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -7536,11 +7383,8 @@
       <c r="AO52">
         <v>0.003</v>
       </c>
-      <c r="AP52" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="53" spans="1:42">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -7664,11 +7508,8 @@
       <c r="AO53">
         <v>0.0443</v>
       </c>
-      <c r="AP53" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="54" spans="1:42">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -7792,11 +7633,8 @@
       <c r="AO54">
         <v>0.0634</v>
       </c>
-      <c r="AP54" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="55" spans="1:42">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -7920,11 +7758,8 @@
       <c r="AO55">
         <v>0</v>
       </c>
-      <c r="AP55" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="56" spans="1:42">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -8048,11 +7883,8 @@
       <c r="AO56">
         <v>0.1308</v>
       </c>
-      <c r="AP56" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="57" spans="1:42">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -8176,11 +8008,8 @@
       <c r="AO57">
         <v>0.0035</v>
       </c>
-      <c r="AP57" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="58" spans="1:42">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -8304,11 +8133,8 @@
       <c r="AO58">
         <v>0.0018</v>
       </c>
-      <c r="AP58" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="59" spans="1:42">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -8432,11 +8258,8 @@
       <c r="AO59">
         <v>0.0781</v>
       </c>
-      <c r="AP59" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="60" spans="1:42">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -8560,11 +8383,8 @@
       <c r="AO60">
         <v>0.8793</v>
       </c>
-      <c r="AP60" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="61" spans="1:42">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -8688,11 +8508,8 @@
       <c r="AO61">
         <v>0.0024</v>
       </c>
-      <c r="AP61" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="62" spans="1:42">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -8816,11 +8633,8 @@
       <c r="AO62">
         <v>0.1559</v>
       </c>
-      <c r="AP62" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="63" spans="1:42">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -8944,11 +8758,8 @@
       <c r="AO63">
         <v>0.5138</v>
       </c>
-      <c r="AP63" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="64" spans="1:42">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -9071,9 +8882,6 @@
       </c>
       <c r="AO64">
         <v>0.0018</v>
-      </c>
-      <c r="AP64" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:42">
@@ -9200,9 +9008,6 @@
       <c r="AO65">
         <v>0.06419999999999999</v>
       </c>
-      <c r="AP65" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="66" spans="1:42">
       <c r="A66" t="s">
@@ -9328,9 +9133,6 @@
       <c r="AO66">
         <v>0</v>
       </c>
-      <c r="AP66" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="67" spans="1:42">
       <c r="A67" t="s">
@@ -9456,9 +9258,6 @@
       <c r="AO67">
         <v>0.1323</v>
       </c>
-      <c r="AP67" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="68" spans="1:42">
       <c r="A68" t="s">
@@ -9584,9 +9383,6 @@
       <c r="AO68">
         <v>0.1255</v>
       </c>
-      <c r="AP68" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="69" spans="1:42">
       <c r="A69" t="s">
@@ -9712,9 +9508,6 @@
       <c r="AO69">
         <v>0</v>
       </c>
-      <c r="AP69" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="70" spans="1:42">
       <c r="A70" t="s">
@@ -9840,9 +9633,6 @@
       <c r="AO70">
         <v>7.6296</v>
       </c>
-      <c r="AP70" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="71" spans="1:42">
       <c r="A71" t="s">
@@ -9968,9 +9758,6 @@
       <c r="AO71">
         <v>2.2653</v>
       </c>
-      <c r="AP71" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="72" spans="1:42">
       <c r="A72" t="s">
@@ -10096,9 +9883,6 @@
       <c r="AO72">
         <v>12.2772</v>
       </c>
-      <c r="AP72" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="73" spans="1:42">
       <c r="A73" t="s">
@@ -10224,9 +10008,6 @@
       <c r="AO73">
         <v>120.5091</v>
       </c>
-      <c r="AP73" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="74" spans="1:42">
       <c r="A74" t="s">
@@ -10353,7 +10134,7 @@
         <v>31.1315</v>
       </c>
       <c r="AP74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:42">
@@ -10481,7 +10262,7 @@
         <v>42.4521</v>
       </c>
       <c r="AP75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:42">
@@ -10609,7 +10390,7 @@
         <v>16.9466</v>
       </c>
       <c r="AP76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:42">
@@ -10736,9 +10517,6 @@
       <c r="AO77">
         <v>58.3383</v>
       </c>
-      <c r="AP77" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="78" spans="1:42">
       <c r="A78" t="s">
@@ -10865,7 +10643,7 @@
         <v>1.5635</v>
       </c>
       <c r="AP78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:42">
@@ -10993,7 +10771,7 @@
         <v>1.3679</v>
       </c>
       <c r="AP79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:42">
@@ -11121,7 +10899,7 @@
         <v>8.279199999999999</v>
       </c>
       <c r="AP80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:42">
@@ -11248,9 +11026,6 @@
       <c r="AO81">
         <v>0</v>
       </c>
-      <c r="AP81" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="82" spans="1:42">
       <c r="A82" t="s">
@@ -11376,9 +11151,6 @@
       <c r="AO82">
         <v>0</v>
       </c>
-      <c r="AP82" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="83" spans="1:42">
       <c r="A83" t="s">
@@ -11504,9 +11276,6 @@
       <c r="AO83">
         <v>29.3402</v>
       </c>
-      <c r="AP83" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="84" spans="1:42">
       <c r="A84" t="s">
@@ -11633,7 +11402,7 @@
         <v>2.0518</v>
       </c>
       <c r="AP84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:42">
@@ -11760,9 +11529,6 @@
       <c r="AO85">
         <v>25.2181</v>
       </c>
-      <c r="AP85" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="86" spans="1:42">
       <c r="A86" t="s">
@@ -11889,7 +11655,7 @@
         <v>2.2597</v>
       </c>
       <c r="AP86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:42">
@@ -12016,9 +11782,6 @@
       <c r="AO87">
         <v>0</v>
       </c>
-      <c r="AP87" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="88" spans="1:42">
       <c r="A88" t="s">
@@ -12144,9 +11907,6 @@
       <c r="AO88">
         <v>31.1644</v>
       </c>
-      <c r="AP88" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="89" spans="1:42">
       <c r="A89" t="s">
@@ -12273,7 +12033,7 @@
         <v>16.7551</v>
       </c>
       <c r="AP89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:42">
@@ -12400,259 +12160,8 @@
       <c r="AO90">
         <v>0</v>
       </c>
-      <c r="AP90" t="s">
-        <v>167</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
-    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{884EB391-7650-4D26-96D9-0C1ECDE15E9D}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C057D7FE-428D-40AD-9A19-EDF071735928}"/>
 </file>
--- a/t1_confection/A1_Outputs/A-O_Demand_COMPLETED.xlsx
+++ b/t1_confection/A1_Outputs/A-O_Demand_COMPLETED.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="169">
   <si>
     <t>Demand/Share</t>
   </si>
@@ -274,12 +274,12 @@
     <t>Techs_SUV</t>
   </si>
   <si>
+    <t>Techs_Taxi</t>
+  </si>
+  <si>
     <t>E6TDPASPUB</t>
   </si>
   <si>
-    <t>Techs_Taxi</t>
-  </si>
-  <si>
     <t>Techs_Buses_Pub</t>
   </si>
   <si>
@@ -439,12 +439,12 @@
     <t>Jeep</t>
   </si>
   <si>
+    <t>Taxi Conchos</t>
+  </si>
+  <si>
     <t>Transport Demand - Passenger Public</t>
   </si>
   <si>
-    <t>Taxi Conchos</t>
-  </si>
-  <si>
     <t>Bus Public</t>
   </si>
   <si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>Use freight file</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
   <si>
     <t>Gvkm</t>
@@ -1133,6 +1136,9 @@
       <c r="AO2">
         <v>2.143</v>
       </c>
+      <c r="AP2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
@@ -1258,6 +1264,9 @@
       <c r="AO3">
         <v>0.0028</v>
       </c>
+      <c r="AP3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
@@ -1383,6 +1392,9 @@
       <c r="AO4">
         <v>0</v>
       </c>
+      <c r="AP4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
@@ -1508,6 +1520,9 @@
       <c r="AO5">
         <v>4.342</v>
       </c>
+      <c r="AP5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
@@ -1633,6 +1648,9 @@
       <c r="AO6">
         <v>31.7837</v>
       </c>
+      <c r="AP6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:42">
       <c r="A7" t="s">
@@ -1678,85 +1696,88 @@
         <v>0.0027</v>
       </c>
       <c r="O7">
-        <v>0.0028</v>
+        <v>0.0027</v>
       </c>
       <c r="P7">
-        <v>0.0029</v>
+        <v>0.0027</v>
       </c>
       <c r="Q7">
-        <v>0.0029</v>
+        <v>0.0027</v>
       </c>
       <c r="R7">
-        <v>0.003</v>
+        <v>0.0027</v>
       </c>
       <c r="S7">
-        <v>0.0031</v>
+        <v>0.0027</v>
       </c>
       <c r="T7">
-        <v>0.0032</v>
+        <v>0.0027</v>
       </c>
       <c r="U7">
-        <v>0.0033</v>
+        <v>0.0027</v>
       </c>
       <c r="V7">
-        <v>0.0034</v>
+        <v>0.0027</v>
       </c>
       <c r="W7">
-        <v>0.0035</v>
+        <v>0.0027</v>
       </c>
       <c r="X7">
-        <v>0.0035</v>
+        <v>0.0027</v>
       </c>
       <c r="Y7">
-        <v>0.0036</v>
+        <v>0.0027</v>
       </c>
       <c r="Z7">
-        <v>0.0037</v>
+        <v>0.0027</v>
       </c>
       <c r="AA7">
-        <v>0.0038</v>
+        <v>0.0027</v>
       </c>
       <c r="AB7">
-        <v>0.0039</v>
+        <v>0.0027</v>
       </c>
       <c r="AC7">
-        <v>0.0039</v>
+        <v>0.0027</v>
       </c>
       <c r="AD7">
-        <v>0.004</v>
+        <v>0.0027</v>
       </c>
       <c r="AE7">
-        <v>0.0041</v>
+        <v>0.0027</v>
       </c>
       <c r="AF7">
-        <v>0.0042</v>
+        <v>0.0027</v>
       </c>
       <c r="AG7">
-        <v>0.0042</v>
+        <v>0.0027</v>
       </c>
       <c r="AH7">
-        <v>0.0043</v>
+        <v>0.0027</v>
       </c>
       <c r="AI7">
-        <v>0.0044</v>
+        <v>0.0027</v>
       </c>
       <c r="AJ7">
-        <v>0.0044</v>
+        <v>0.0027</v>
       </c>
       <c r="AK7">
-        <v>0.0045</v>
+        <v>0.0027</v>
       </c>
       <c r="AL7">
-        <v>0.0045</v>
+        <v>0.0027</v>
       </c>
       <c r="AM7">
-        <v>0.0046</v>
+        <v>0.0027</v>
       </c>
       <c r="AN7">
-        <v>0.0046</v>
+        <v>0.0027</v>
       </c>
       <c r="AO7">
-        <v>0.0047</v>
+        <v>0.0027</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -1883,6 +1904,9 @@
       <c r="AO8">
         <v>11.9093</v>
       </c>
+      <c r="AP8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" t="s">
@@ -2008,6 +2032,9 @@
       <c r="AO9">
         <v>0.1566</v>
       </c>
+      <c r="AP9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:42">
       <c r="A10" t="s">
@@ -2133,6 +2160,9 @@
       <c r="AO10">
         <v>7.0591</v>
       </c>
+      <c r="AP10" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
@@ -2258,6 +2288,9 @@
       <c r="AO11">
         <v>4.0687</v>
       </c>
+      <c r="AP11" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
@@ -2383,6 +2416,9 @@
       <c r="AO12">
         <v>44.6216</v>
       </c>
+      <c r="AP12" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
@@ -2508,6 +2544,9 @@
       <c r="AO13">
         <v>0</v>
       </c>
+      <c r="AP13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
@@ -2535,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.9675</v>
+        <v>7.96</v>
       </c>
       <c r="J14">
         <v>16.889</v>
@@ -2632,6 +2671,9 @@
       </c>
       <c r="AO14">
         <v>34.1983</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -2675,88 +2717,91 @@
         <v>7.1027</v>
       </c>
       <c r="N15">
-        <v>7.2516</v>
+        <v>7.0819</v>
       </c>
       <c r="O15">
-        <v>7.5971</v>
+        <v>7.3414</v>
       </c>
       <c r="P15">
-        <v>7.948</v>
+        <v>7.6022</v>
       </c>
       <c r="Q15">
-        <v>8.2836</v>
+        <v>7.8492</v>
       </c>
       <c r="R15">
-        <v>8.6281</v>
+        <v>8.100300000000001</v>
       </c>
       <c r="S15">
-        <v>8.9975</v>
+        <v>8.367100000000001</v>
       </c>
       <c r="T15">
-        <v>9.3573</v>
+        <v>8.6244</v>
       </c>
       <c r="U15">
-        <v>9.7193</v>
+        <v>8.8812</v>
       </c>
       <c r="V15">
-        <v>10.0511</v>
+        <v>9.1144</v>
       </c>
       <c r="W15">
-        <v>10.3922</v>
+        <v>9.3523</v>
       </c>
       <c r="X15">
-        <v>10.743</v>
+        <v>9.5952</v>
       </c>
       <c r="Y15">
-        <v>11.1036</v>
+        <v>9.8429</v>
       </c>
       <c r="Z15">
-        <v>11.4742</v>
+        <v>10.0956</v>
       </c>
       <c r="AA15">
-        <v>11.7899</v>
+        <v>10.3093</v>
       </c>
       <c r="AB15">
-        <v>12.1128</v>
+        <v>10.5265</v>
       </c>
       <c r="AC15">
-        <v>12.443</v>
+        <v>10.7472</v>
       </c>
       <c r="AD15">
-        <v>12.7807</v>
+        <v>10.9716</v>
       </c>
       <c r="AE15">
-        <v>13.126</v>
+        <v>11.1997</v>
       </c>
       <c r="AF15">
-        <v>13.4088</v>
+        <v>11.3852</v>
       </c>
       <c r="AG15">
-        <v>13.6966</v>
+        <v>11.5732</v>
       </c>
       <c r="AH15">
-        <v>13.9896</v>
+        <v>11.7637</v>
       </c>
       <c r="AI15">
-        <v>14.2877</v>
+        <v>11.9566</v>
       </c>
       <c r="AJ15">
-        <v>14.5912</v>
+        <v>12.1519</v>
       </c>
       <c r="AK15">
-        <v>14.8283</v>
+        <v>12.3038</v>
       </c>
       <c r="AL15">
-        <v>15.0687</v>
+        <v>12.4572</v>
       </c>
       <c r="AM15">
-        <v>15.3123</v>
+        <v>12.6122</v>
       </c>
       <c r="AN15">
-        <v>15.5592</v>
+        <v>12.7686</v>
       </c>
       <c r="AO15">
-        <v>15.8093</v>
+        <v>12.9265</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -2883,8 +2928,11 @@
       <c r="AO16">
         <v>6.7148</v>
       </c>
+      <c r="AP16" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2910,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.1088</v>
+        <v>4.0556</v>
       </c>
       <c r="J17">
         <v>9.754799999999999</v>
@@ -3008,8 +3056,11 @@
       <c r="AO17">
         <v>38.2945</v>
       </c>
+      <c r="AP17" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3133,8 +3184,11 @@
       <c r="AO18">
         <v>39.7729</v>
       </c>
+      <c r="AP18" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3258,8 +3312,11 @@
       <c r="AO19">
         <v>44.0176</v>
       </c>
+      <c r="AP19" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3285,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1959</v>
       </c>
       <c r="J20">
         <v>0.079</v>
@@ -3383,8 +3440,11 @@
       <c r="AO20">
         <v>0.9261</v>
       </c>
+      <c r="AP20" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3425,91 +3485,94 @@
         <v>18.9055</v>
       </c>
       <c r="N21">
-        <v>19.1846</v>
+        <v>18.9055</v>
       </c>
       <c r="O21">
-        <v>19.9851</v>
+        <v>18.9055</v>
       </c>
       <c r="P21">
-        <v>20.7936</v>
+        <v>18.9055</v>
       </c>
       <c r="Q21">
-        <v>21.5626</v>
+        <v>18.9055</v>
       </c>
       <c r="R21">
-        <v>22.348</v>
+        <v>18.9055</v>
       </c>
       <c r="S21">
-        <v>23.186</v>
+        <v>18.9055</v>
       </c>
       <c r="T21">
-        <v>23.9981</v>
+        <v>18.9055</v>
       </c>
       <c r="U21">
-        <v>24.8114</v>
+        <v>18.9055</v>
       </c>
       <c r="V21">
-        <v>25.5532</v>
+        <v>18.9055</v>
       </c>
       <c r="W21">
-        <v>26.3128</v>
+        <v>18.9055</v>
       </c>
       <c r="X21">
-        <v>27.0907</v>
+        <v>18.9055</v>
       </c>
       <c r="Y21">
-        <v>27.8871</v>
+        <v>18.9055</v>
       </c>
       <c r="Z21">
-        <v>28.7024</v>
+        <v>18.9055</v>
       </c>
       <c r="AA21">
-        <v>29.394</v>
+        <v>18.9055</v>
       </c>
       <c r="AB21">
-        <v>30.099</v>
+        <v>18.9055</v>
       </c>
       <c r="AC21">
-        <v>30.8178</v>
+        <v>18.9055</v>
       </c>
       <c r="AD21">
-        <v>31.5503</v>
+        <v>18.9055</v>
       </c>
       <c r="AE21">
-        <v>32.297</v>
+        <v>18.9055</v>
       </c>
       <c r="AF21">
-        <v>32.9063</v>
+        <v>18.9055</v>
       </c>
       <c r="AG21">
-        <v>33.525</v>
+        <v>18.9055</v>
       </c>
       <c r="AH21">
-        <v>34.1531</v>
+        <v>18.9055</v>
       </c>
       <c r="AI21">
-        <v>34.7906</v>
+        <v>18.9055</v>
       </c>
       <c r="AJ21">
-        <v>35.4378</v>
+        <v>18.9055</v>
       </c>
       <c r="AK21">
-        <v>35.9423</v>
+        <v>18.9055</v>
       </c>
       <c r="AL21">
-        <v>36.4526</v>
+        <v>18.9055</v>
       </c>
       <c r="AM21">
-        <v>36.9687</v>
+        <v>18.9055</v>
       </c>
       <c r="AN21">
-        <v>37.4907</v>
+        <v>18.9055</v>
       </c>
       <c r="AO21">
-        <v>38.0187</v>
+        <v>18.9055</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3633,8 +3696,11 @@
       <c r="AO22">
         <v>0</v>
       </c>
+      <c r="AP22" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:42">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3660,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6377</v>
       </c>
       <c r="J23">
         <v>1.1363</v>
@@ -3758,8 +3824,11 @@
       <c r="AO23">
         <v>3.5345</v>
       </c>
+      <c r="AP23" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:42">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3785,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3463</v>
       </c>
       <c r="J24">
         <v>0.6405999999999999</v>
@@ -3883,8 +3952,11 @@
       <c r="AO24">
         <v>1.3765</v>
       </c>
+      <c r="AP24" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:42">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4008,8 +4080,11 @@
       <c r="AO25">
         <v>2.8789</v>
       </c>
+      <c r="AP25" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:42">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4133,8 +4208,11 @@
       <c r="AO26">
         <v>41.8932</v>
       </c>
+      <c r="AP26" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:42">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -4258,8 +4336,11 @@
       <c r="AO27">
         <v>0.1033</v>
       </c>
+      <c r="AP27" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:42">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -4383,8 +4464,11 @@
       <c r="AO28">
         <v>0</v>
       </c>
+      <c r="AP28" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:42">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -4508,8 +4592,11 @@
       <c r="AO29">
         <v>0</v>
       </c>
+      <c r="AP29" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:42">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -4633,8 +4720,11 @@
       <c r="AO30">
         <v>0</v>
       </c>
+      <c r="AP30" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:42">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -4758,8 +4848,11 @@
       <c r="AO31">
         <v>0</v>
       </c>
+      <c r="AP31" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:42">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -4883,8 +4976,11 @@
       <c r="AO32">
         <v>0</v>
       </c>
+      <c r="AP32" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:42">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -5008,8 +5104,11 @@
       <c r="AO33">
         <v>5.8117</v>
       </c>
+      <c r="AP33" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:42">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -5133,8 +5232,11 @@
       <c r="AO34">
         <v>8.881500000000001</v>
       </c>
+      <c r="AP34" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:42">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -5258,8 +5360,11 @@
       <c r="AO35">
         <v>0</v>
       </c>
+      <c r="AP35" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:42">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -5383,8 +5488,11 @@
       <c r="AO36">
         <v>0.7397</v>
       </c>
+      <c r="AP36" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:42">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -5508,8 +5616,11 @@
       <c r="AO37">
         <v>0.9041</v>
       </c>
+      <c r="AP37" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -5535,106 +5646,109 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>2.7632</v>
+        <v>1.4682</v>
       </c>
       <c r="J38">
-        <v>2.7858</v>
+        <v>1.5036</v>
       </c>
       <c r="K38">
-        <v>2.7855</v>
+        <v>1.5053</v>
       </c>
       <c r="L38">
-        <v>2.7937</v>
+        <v>1.4958</v>
       </c>
       <c r="M38">
-        <v>2.8167</v>
+        <v>1.5081</v>
       </c>
       <c r="N38">
-        <v>2.8403</v>
+        <v>1.5899</v>
       </c>
       <c r="O38">
-        <v>2.8627</v>
+        <v>1.6401</v>
       </c>
       <c r="P38">
-        <v>2.8846</v>
+        <v>1.6903</v>
       </c>
       <c r="Q38">
-        <v>2.9048</v>
+        <v>1.7376</v>
       </c>
       <c r="R38">
-        <v>2.9248</v>
+        <v>1.7854</v>
       </c>
       <c r="S38">
-        <v>2.9456</v>
+        <v>1.8361</v>
       </c>
       <c r="T38">
-        <v>2.9651</v>
+        <v>1.8848</v>
       </c>
       <c r="U38">
-        <v>2.9841</v>
+        <v>1.933</v>
       </c>
       <c r="V38">
-        <v>3.0009</v>
+        <v>1.9767</v>
       </c>
       <c r="W38">
-        <v>3.0178</v>
+        <v>2.0212</v>
       </c>
       <c r="X38">
-        <v>3.0347</v>
+        <v>2.0664</v>
       </c>
       <c r="Y38">
-        <v>3.0516</v>
+        <v>2.1123</v>
       </c>
       <c r="Z38">
-        <v>3.0684</v>
+        <v>2.159</v>
       </c>
       <c r="AA38">
-        <v>3.0824</v>
+        <v>2.1983</v>
       </c>
       <c r="AB38">
-        <v>3.0964</v>
+        <v>2.2381</v>
       </c>
       <c r="AC38">
-        <v>3.1104</v>
+        <v>2.2786</v>
       </c>
       <c r="AD38">
-        <v>3.1244</v>
+        <v>2.3196</v>
       </c>
       <c r="AE38">
-        <v>3.1383</v>
+        <v>2.3611</v>
       </c>
       <c r="AF38">
-        <v>3.1495</v>
+        <v>2.3949</v>
       </c>
       <c r="AG38">
-        <v>3.1607</v>
+        <v>2.4289</v>
       </c>
       <c r="AH38">
-        <v>3.1719</v>
+        <v>2.4634</v>
       </c>
       <c r="AI38">
-        <v>3.1831</v>
+        <v>2.4981</v>
       </c>
       <c r="AJ38">
-        <v>3.1943</v>
+        <v>2.5333</v>
       </c>
       <c r="AK38">
-        <v>3.2029</v>
+        <v>2.5607</v>
       </c>
       <c r="AL38">
-        <v>3.2115</v>
+        <v>2.5881</v>
       </c>
       <c r="AM38">
-        <v>3.2201</v>
+        <v>2.6158</v>
       </c>
       <c r="AN38">
-        <v>3.2287</v>
+        <v>2.6438</v>
       </c>
       <c r="AO38">
-        <v>3.2373</v>
+        <v>2.6508</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:42">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -5758,8 +5872,11 @@
       <c r="AO39">
         <v>0.0369</v>
       </c>
+      <c r="AP39" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:42">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -5883,8 +6000,11 @@
       <c r="AO40">
         <v>0.1089</v>
       </c>
+      <c r="AP40" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:42">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -6008,8 +6128,11 @@
       <c r="AO41">
         <v>0.5583</v>
       </c>
+      <c r="AP41" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:42">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -6133,8 +6256,11 @@
       <c r="AO42">
         <v>0.5356</v>
       </c>
+      <c r="AP42" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:42">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -6258,8 +6384,11 @@
       <c r="AO43">
         <v>0.3308</v>
       </c>
+      <c r="AP43" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:42">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -6383,8 +6512,11 @@
       <c r="AO44">
         <v>2.3564</v>
       </c>
+      <c r="AP44" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:42">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -6508,8 +6640,11 @@
       <c r="AO45">
         <v>0.3097</v>
       </c>
+      <c r="AP45" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:42">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -6633,8 +6768,11 @@
       <c r="AO46">
         <v>2.8044</v>
       </c>
+      <c r="AP46" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:42">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -6758,8 +6896,11 @@
       <c r="AO47">
         <v>0.4896</v>
       </c>
+      <c r="AP47" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:42">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -6883,8 +7024,11 @@
       <c r="AO48">
         <v>0.0576</v>
       </c>
+      <c r="AP48" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:42">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -7008,8 +7152,11 @@
       <c r="AO49">
         <v>0.0386</v>
       </c>
+      <c r="AP49" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:42">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -7133,8 +7280,11 @@
       <c r="AO50">
         <v>0.06560000000000001</v>
       </c>
+      <c r="AP50" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:42">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -7258,8 +7408,11 @@
       <c r="AO51">
         <v>0.0543</v>
       </c>
+      <c r="AP51" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:42">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -7383,8 +7536,11 @@
       <c r="AO52">
         <v>0.003</v>
       </c>
+      <c r="AP52" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:42">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -7508,8 +7664,11 @@
       <c r="AO53">
         <v>0.0443</v>
       </c>
+      <c r="AP53" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:42">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -7633,8 +7792,11 @@
       <c r="AO54">
         <v>0.0634</v>
       </c>
+      <c r="AP54" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:42">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -7660,106 +7822,109 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>0.0481</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>0.0346</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>0.0508</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>0.0508</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>0.0539</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.0568</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>0.0586</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>0.0604</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>0.0621</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>0.0638</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>0.0674</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>0.0707</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>0.0723</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.0755</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.0786</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>0.0815</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>0.0829</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>0.0844</v>
       </c>
       <c r="AG55">
-        <v>0</v>
+        <v>0.0856</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>0.0868</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>0.0881</v>
       </c>
       <c r="AJ55">
-        <v>0</v>
+        <v>0.0893</v>
       </c>
       <c r="AK55">
-        <v>0</v>
+        <v>0.0906</v>
       </c>
       <c r="AL55">
-        <v>0</v>
+        <v>0.0915</v>
       </c>
       <c r="AM55">
-        <v>0</v>
+        <v>0.0925</v>
       </c>
       <c r="AN55">
-        <v>0</v>
+        <v>0.0935</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>0.0945</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:42">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -7883,8 +8048,11 @@
       <c r="AO56">
         <v>0.1308</v>
       </c>
+      <c r="AP56" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:42">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -8008,8 +8176,11 @@
       <c r="AO57">
         <v>0.0035</v>
       </c>
+      <c r="AP57" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:42">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -8133,8 +8304,11 @@
       <c r="AO58">
         <v>0.0018</v>
       </c>
+      <c r="AP58" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:42">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -8258,8 +8432,11 @@
       <c r="AO59">
         <v>0.0781</v>
       </c>
+      <c r="AP59" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:42">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -8383,8 +8560,11 @@
       <c r="AO60">
         <v>0.8793</v>
       </c>
+      <c r="AP60" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:42">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -8508,8 +8688,11 @@
       <c r="AO61">
         <v>0.0024</v>
       </c>
+      <c r="AP61" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:42">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -8633,8 +8816,11 @@
       <c r="AO62">
         <v>0.1559</v>
       </c>
+      <c r="AP62" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:42">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -8758,8 +8944,11 @@
       <c r="AO63">
         <v>0.5138</v>
       </c>
+      <c r="AP63" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:42">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -8882,6 +9071,9 @@
       </c>
       <c r="AO64">
         <v>0.0018</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:42">
@@ -9008,6 +9200,9 @@
       <c r="AO65">
         <v>0.06419999999999999</v>
       </c>
+      <c r="AP65" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="66" spans="1:42">
       <c r="A66" t="s">
@@ -9133,6 +9328,9 @@
       <c r="AO66">
         <v>0</v>
       </c>
+      <c r="AP66" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="67" spans="1:42">
       <c r="A67" t="s">
@@ -9258,6 +9456,9 @@
       <c r="AO67">
         <v>0.1323</v>
       </c>
+      <c r="AP67" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="68" spans="1:42">
       <c r="A68" t="s">
@@ -9383,6 +9584,9 @@
       <c r="AO68">
         <v>0.1255</v>
       </c>
+      <c r="AP68" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="69" spans="1:42">
       <c r="A69" t="s">
@@ -9508,6 +9712,9 @@
       <c r="AO69">
         <v>0</v>
       </c>
+      <c r="AP69" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="70" spans="1:42">
       <c r="A70" t="s">
@@ -9633,6 +9840,9 @@
       <c r="AO70">
         <v>7.6296</v>
       </c>
+      <c r="AP70" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="71" spans="1:42">
       <c r="A71" t="s">
@@ -9758,6 +9968,9 @@
       <c r="AO71">
         <v>2.2653</v>
       </c>
+      <c r="AP71" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="72" spans="1:42">
       <c r="A72" t="s">
@@ -9883,6 +10096,9 @@
       <c r="AO72">
         <v>12.2772</v>
       </c>
+      <c r="AP72" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="73" spans="1:42">
       <c r="A73" t="s">
@@ -9910,103 +10126,106 @@
         <v>164</v>
       </c>
       <c r="I73">
-        <v>59.7859</v>
+        <v>43.2142</v>
       </c>
       <c r="J73">
-        <v>62.9502</v>
+        <v>45.5014</v>
       </c>
       <c r="K73">
-        <v>58.197</v>
+        <v>42.0657</v>
       </c>
       <c r="L73">
-        <v>65.7021</v>
+        <v>47.4906</v>
       </c>
       <c r="M73">
-        <v>69.89870000000001</v>
+        <v>50.5239</v>
       </c>
       <c r="N73">
-        <v>70.93089999999999</v>
+        <v>51.27</v>
       </c>
       <c r="O73">
-        <v>73.217</v>
+        <v>52.9225</v>
       </c>
       <c r="P73">
-        <v>75.50490000000001</v>
+        <v>54.5762</v>
       </c>
       <c r="Q73">
-        <v>77.6621</v>
+        <v>56.1354</v>
       </c>
       <c r="R73">
-        <v>79.8471</v>
+        <v>57.7148</v>
       </c>
       <c r="S73">
-        <v>82.1601</v>
+        <v>59.3866</v>
       </c>
       <c r="T73">
-        <v>84.3828</v>
+        <v>60.9932</v>
       </c>
       <c r="U73">
-        <v>86.592</v>
+        <v>62.5901</v>
       </c>
       <c r="V73">
-        <v>88.5917</v>
+        <v>64.0355</v>
       </c>
       <c r="W73">
-        <v>90.62609999999999</v>
+        <v>65.506</v>
       </c>
       <c r="X73">
-        <v>92.6955</v>
+        <v>67.0018</v>
       </c>
       <c r="Y73">
-        <v>94.8005</v>
+        <v>68.52330000000001</v>
       </c>
       <c r="Z73">
-        <v>96.9413</v>
+        <v>70.07080000000001</v>
       </c>
       <c r="AA73">
-        <v>98.7457</v>
+        <v>71.375</v>
       </c>
       <c r="AB73">
-        <v>100.5754</v>
+        <v>72.69750000000001</v>
       </c>
       <c r="AC73">
-        <v>102.4305</v>
+        <v>74.0384</v>
       </c>
       <c r="AD73">
-        <v>104.3114</v>
+        <v>75.398</v>
       </c>
       <c r="AE73">
-        <v>106.2182</v>
+        <v>76.7762</v>
       </c>
       <c r="AF73">
-        <v>107.7663</v>
+        <v>77.8952</v>
       </c>
       <c r="AG73">
-        <v>109.3314</v>
+        <v>79.0265</v>
       </c>
       <c r="AH73">
-        <v>110.9136</v>
+        <v>80.17010000000001</v>
       </c>
       <c r="AI73">
-        <v>112.513</v>
+        <v>81.3262</v>
       </c>
       <c r="AJ73">
-        <v>114.1298</v>
+        <v>82.4949</v>
       </c>
       <c r="AK73">
-        <v>115.3847</v>
+        <v>83.402</v>
       </c>
       <c r="AL73">
-        <v>116.6501</v>
+        <v>84.31659999999999</v>
       </c>
       <c r="AM73">
-        <v>117.9259</v>
+        <v>85.23869999999999</v>
       </c>
       <c r="AN73">
-        <v>119.2122</v>
+        <v>86.16849999999999</v>
       </c>
       <c r="AO73">
-        <v>120.5091</v>
+        <v>87.10590000000001</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:42">
@@ -10020,13 +10239,13 @@
         <v>138</v>
       </c>
       <c r="D74">
-        <v>1045414</v>
+        <v>881250</v>
       </c>
       <c r="E74">
         <v>1.5</v>
       </c>
       <c r="F74">
-        <v>14773</v>
+        <v>7500</v>
       </c>
       <c r="G74" t="s">
         <v>158</v>
@@ -10035,106 +10254,106 @@
         <v>165</v>
       </c>
       <c r="I74">
-        <v>15.4447</v>
+        <v>6.6094</v>
       </c>
       <c r="J74">
-        <v>16.2621</v>
+        <v>6.9587</v>
       </c>
       <c r="K74">
-        <v>15.0342</v>
+        <v>6.4332</v>
       </c>
       <c r="L74">
-        <v>16.973</v>
+        <v>7.2629</v>
       </c>
       <c r="M74">
-        <v>18.0572</v>
+        <v>7.7268</v>
       </c>
       <c r="N74">
-        <v>18.3238</v>
+        <v>7.8409</v>
       </c>
       <c r="O74">
-        <v>18.9144</v>
+        <v>8.0936</v>
       </c>
       <c r="P74">
-        <v>19.5054</v>
+        <v>8.346500000000001</v>
       </c>
       <c r="Q74">
-        <v>20.0627</v>
+        <v>8.585000000000001</v>
       </c>
       <c r="R74">
-        <v>20.6272</v>
+        <v>8.826499999999999</v>
       </c>
       <c r="S74">
-        <v>21.2247</v>
+        <v>9.0822</v>
       </c>
       <c r="T74">
-        <v>21.7989</v>
+        <v>9.3279</v>
       </c>
       <c r="U74">
-        <v>22.3696</v>
+        <v>9.572100000000001</v>
       </c>
       <c r="V74">
-        <v>22.8862</v>
+        <v>9.793200000000001</v>
       </c>
       <c r="W74">
-        <v>23.4117</v>
+        <v>10.0181</v>
       </c>
       <c r="X74">
-        <v>23.9463</v>
+        <v>10.2468</v>
       </c>
       <c r="Y74">
-        <v>24.4901</v>
+        <v>10.4795</v>
       </c>
       <c r="Z74">
-        <v>25.0432</v>
+        <v>10.7162</v>
       </c>
       <c r="AA74">
-        <v>25.5093</v>
+        <v>10.9156</v>
       </c>
       <c r="AB74">
-        <v>25.982</v>
+        <v>11.1179</v>
       </c>
       <c r="AC74">
-        <v>26.4612</v>
+        <v>11.3229</v>
       </c>
       <c r="AD74">
-        <v>26.9471</v>
+        <v>11.5309</v>
       </c>
       <c r="AE74">
-        <v>27.4397</v>
+        <v>11.7416</v>
       </c>
       <c r="AF74">
-        <v>27.8396</v>
+        <v>11.9128</v>
       </c>
       <c r="AG74">
-        <v>28.2439</v>
+        <v>12.0858</v>
       </c>
       <c r="AH74">
-        <v>28.6527</v>
+        <v>12.2607</v>
       </c>
       <c r="AI74">
-        <v>29.0659</v>
+        <v>12.4375</v>
       </c>
       <c r="AJ74">
-        <v>29.4835</v>
+        <v>12.6162</v>
       </c>
       <c r="AK74">
-        <v>29.8077</v>
+        <v>12.7549</v>
       </c>
       <c r="AL74">
-        <v>30.1346</v>
+        <v>12.8948</v>
       </c>
       <c r="AM74">
-        <v>30.4642</v>
+        <v>13.0358</v>
       </c>
       <c r="AN74">
-        <v>30.7965</v>
+        <v>13.178</v>
       </c>
       <c r="AO74">
-        <v>31.1315</v>
+        <v>13.3214</v>
       </c>
       <c r="AP74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:42">
@@ -10148,13 +10367,13 @@
         <v>139</v>
       </c>
       <c r="D75">
-        <v>2874590</v>
+        <v>2398511</v>
       </c>
       <c r="E75">
         <v>1.1</v>
       </c>
       <c r="F75">
-        <v>7327</v>
+        <v>10500</v>
       </c>
       <c r="G75" t="s">
         <v>158</v>
@@ -10163,106 +10382,106 @@
         <v>165</v>
       </c>
       <c r="I75">
-        <v>21.0609</v>
+        <v>25.1844</v>
       </c>
       <c r="J75">
-        <v>22.1756</v>
+        <v>26.519</v>
       </c>
       <c r="K75">
-        <v>20.5012</v>
+        <v>24.5167</v>
       </c>
       <c r="L75">
-        <v>23.1451</v>
+        <v>27.6784</v>
       </c>
       <c r="M75">
-        <v>24.6234</v>
+        <v>29.4462</v>
       </c>
       <c r="N75">
-        <v>24.987</v>
+        <v>29.8811</v>
       </c>
       <c r="O75">
-        <v>25.7924</v>
+        <v>30.8442</v>
       </c>
       <c r="P75">
-        <v>26.5983</v>
+        <v>31.808</v>
       </c>
       <c r="Q75">
-        <v>27.3582</v>
+        <v>32.7167</v>
       </c>
       <c r="R75">
-        <v>28.128</v>
+        <v>33.6372</v>
       </c>
       <c r="S75">
-        <v>28.9428</v>
+        <v>34.6116</v>
       </c>
       <c r="T75">
-        <v>29.7258</v>
+        <v>35.5479</v>
       </c>
       <c r="U75">
-        <v>30.504</v>
+        <v>36.4786</v>
       </c>
       <c r="V75">
-        <v>31.2084</v>
+        <v>37.3211</v>
       </c>
       <c r="W75">
-        <v>31.9251</v>
+        <v>38.1781</v>
       </c>
       <c r="X75">
-        <v>32.6541</v>
+        <v>39.0499</v>
       </c>
       <c r="Y75">
-        <v>33.3956</v>
+        <v>39.9366</v>
       </c>
       <c r="Z75">
-        <v>34.1498</v>
+        <v>40.8385</v>
       </c>
       <c r="AA75">
-        <v>34.7854</v>
+        <v>41.5986</v>
       </c>
       <c r="AB75">
-        <v>35.43</v>
+        <v>42.3694</v>
       </c>
       <c r="AC75">
-        <v>36.0835</v>
+        <v>43.1509</v>
       </c>
       <c r="AD75">
-        <v>36.7461</v>
+        <v>43.9433</v>
       </c>
       <c r="AE75">
-        <v>37.4178</v>
+        <v>44.7466</v>
       </c>
       <c r="AF75">
-        <v>37.9631</v>
+        <v>45.3987</v>
       </c>
       <c r="AG75">
-        <v>38.5145</v>
+        <v>46.0581</v>
       </c>
       <c r="AH75">
-        <v>39.0718</v>
+        <v>46.7246</v>
       </c>
       <c r="AI75">
-        <v>39.6353</v>
+        <v>47.3984</v>
       </c>
       <c r="AJ75">
-        <v>40.2048</v>
+        <v>48.0795</v>
       </c>
       <c r="AK75">
-        <v>40.6469</v>
+        <v>48.6082</v>
       </c>
       <c r="AL75">
-        <v>41.0926</v>
+        <v>49.1412</v>
       </c>
       <c r="AM75">
-        <v>41.5421</v>
+        <v>49.6787</v>
       </c>
       <c r="AN75">
-        <v>41.9952</v>
+        <v>50.2206</v>
       </c>
       <c r="AO75">
-        <v>42.4521</v>
+        <v>50.7669</v>
       </c>
       <c r="AP75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:42">
@@ -10276,13 +10495,13 @@
         <v>140</v>
       </c>
       <c r="D76">
-        <v>569102</v>
+        <v>449918</v>
       </c>
       <c r="E76">
         <v>1.6</v>
       </c>
       <c r="F76">
-        <v>14773</v>
+        <v>7500</v>
       </c>
       <c r="G76" t="s">
         <v>158</v>
@@ -10291,111 +10510,111 @@
         <v>165</v>
       </c>
       <c r="I76">
-        <v>8.407400000000001</v>
+        <v>3.3744</v>
       </c>
       <c r="J76">
-        <v>8.852399999999999</v>
+        <v>3.552</v>
       </c>
       <c r="K76">
-        <v>8.183999999999999</v>
+        <v>3.2838</v>
       </c>
       <c r="L76">
-        <v>9.2394</v>
+        <v>3.7072</v>
       </c>
       <c r="M76">
-        <v>9.829499999999999</v>
+        <v>3.944</v>
       </c>
       <c r="N76">
-        <v>9.9747</v>
+        <v>4.0023</v>
       </c>
       <c r="O76">
-        <v>10.2961</v>
+        <v>4.1313</v>
       </c>
       <c r="P76">
-        <v>10.6179</v>
+        <v>4.2604</v>
       </c>
       <c r="Q76">
-        <v>10.9212</v>
+        <v>4.3821</v>
       </c>
       <c r="R76">
-        <v>11.2285</v>
+        <v>4.5054</v>
       </c>
       <c r="S76">
-        <v>11.5538</v>
+        <v>4.6359</v>
       </c>
       <c r="T76">
-        <v>11.8663</v>
+        <v>4.7613</v>
       </c>
       <c r="U76">
-        <v>12.177</v>
+        <v>4.8859</v>
       </c>
       <c r="V76">
-        <v>12.4582</v>
+        <v>4.9988</v>
       </c>
       <c r="W76">
-        <v>12.7443</v>
+        <v>5.1136</v>
       </c>
       <c r="X76">
-        <v>13.0353</v>
+        <v>5.2303</v>
       </c>
       <c r="Y76">
-        <v>13.3313</v>
+        <v>5.3491</v>
       </c>
       <c r="Z76">
-        <v>13.6324</v>
+        <v>5.4699</v>
       </c>
       <c r="AA76">
-        <v>13.8861</v>
+        <v>5.5717</v>
       </c>
       <c r="AB76">
-        <v>14.1434</v>
+        <v>5.6749</v>
       </c>
       <c r="AC76">
-        <v>14.4043</v>
+        <v>5.7796</v>
       </c>
       <c r="AD76">
-        <v>14.6688</v>
+        <v>5.8858</v>
       </c>
       <c r="AE76">
-        <v>14.9369</v>
+        <v>5.9933</v>
       </c>
       <c r="AF76">
-        <v>15.1546</v>
+        <v>6.0807</v>
       </c>
       <c r="AG76">
-        <v>15.3747</v>
+        <v>6.169</v>
       </c>
       <c r="AH76">
-        <v>15.5972</v>
+        <v>6.2583</v>
       </c>
       <c r="AI76">
-        <v>15.8221</v>
+        <v>6.3485</v>
       </c>
       <c r="AJ76">
-        <v>16.0495</v>
+        <v>6.4398</v>
       </c>
       <c r="AK76">
-        <v>16.226</v>
+        <v>6.5106</v>
       </c>
       <c r="AL76">
-        <v>16.4039</v>
+        <v>6.582</v>
       </c>
       <c r="AM76">
-        <v>16.5833</v>
+        <v>6.6539</v>
       </c>
       <c r="AN76">
-        <v>16.7642</v>
+        <v>6.7265</v>
       </c>
       <c r="AO76">
-        <v>16.9466</v>
+        <v>6.7997</v>
       </c>
       <c r="AP76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:42">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
         <v>86</v>
@@ -10403,124 +10622,127 @@
       <c r="C77" t="s">
         <v>141</v>
       </c>
-      <c r="D77" t="s">
-        <v>155</v>
-      </c>
-      <c r="E77" t="s">
-        <v>155</v>
-      </c>
-      <c r="F77" t="s">
-        <v>155</v>
+      <c r="D77">
+        <v>17630</v>
+      </c>
+      <c r="E77">
+        <v>0.25</v>
+      </c>
+      <c r="F77">
+        <v>45000</v>
       </c>
       <c r="G77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I77">
-        <v>28.9423</v>
+        <v>1.572</v>
       </c>
       <c r="J77">
-        <v>30.4741</v>
+        <v>1.6563</v>
       </c>
       <c r="K77">
-        <v>28.1731</v>
+        <v>1.5312</v>
       </c>
       <c r="L77">
-        <v>31.8063</v>
+        <v>1.7287</v>
       </c>
       <c r="M77">
-        <v>33.8379</v>
+        <v>1.8391</v>
       </c>
       <c r="N77">
-        <v>34.3376</v>
+        <v>1.8662</v>
       </c>
       <c r="O77">
-        <v>35.4443</v>
+        <v>1.9264</v>
       </c>
       <c r="P77">
-        <v>36.5518</v>
+        <v>1.9866</v>
       </c>
       <c r="Q77">
-        <v>37.5962</v>
+        <v>2.0433</v>
       </c>
       <c r="R77">
-        <v>38.6539</v>
+        <v>2.1008</v>
       </c>
       <c r="S77">
-        <v>39.7736</v>
+        <v>2.1617</v>
       </c>
       <c r="T77">
-        <v>40.8496</v>
+        <v>2.2202</v>
       </c>
       <c r="U77">
-        <v>41.9191</v>
+        <v>2.2783</v>
       </c>
       <c r="V77">
-        <v>42.8871</v>
+        <v>2.3309</v>
       </c>
       <c r="W77">
-        <v>43.872</v>
+        <v>2.3844</v>
       </c>
       <c r="X77">
-        <v>44.8738</v>
+        <v>2.4389</v>
       </c>
       <c r="Y77">
-        <v>45.8928</v>
+        <v>2.4942</v>
       </c>
       <c r="Z77">
-        <v>46.9292</v>
+        <v>2.5506</v>
       </c>
       <c r="AA77">
-        <v>47.8027</v>
+        <v>2.5981</v>
       </c>
       <c r="AB77">
-        <v>48.6884</v>
+        <v>2.6462</v>
       </c>
       <c r="AC77">
-        <v>49.5865</v>
+        <v>2.695</v>
       </c>
       <c r="AD77">
-        <v>50.497</v>
+        <v>2.7445</v>
       </c>
       <c r="AE77">
-        <v>51.4201</v>
+        <v>2.7947</v>
       </c>
       <c r="AF77">
-        <v>52.1696</v>
+        <v>2.8354</v>
       </c>
       <c r="AG77">
-        <v>52.9272</v>
+        <v>2.8766</v>
       </c>
       <c r="AH77">
-        <v>53.6932</v>
+        <v>2.9182</v>
       </c>
       <c r="AI77">
-        <v>54.4674</v>
+        <v>2.9603</v>
       </c>
       <c r="AJ77">
-        <v>55.2501</v>
+        <v>3.0028</v>
       </c>
       <c r="AK77">
-        <v>55.8576</v>
+        <v>3.0358</v>
       </c>
       <c r="AL77">
-        <v>56.4702</v>
+        <v>3.0691</v>
       </c>
       <c r="AM77">
-        <v>57.0878</v>
+        <v>3.1027</v>
       </c>
       <c r="AN77">
-        <v>57.7105</v>
+        <v>3.1365</v>
       </c>
       <c r="AO77">
-        <v>58.3383</v>
+        <v>3.1707</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:42">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
         <v>87</v>
@@ -10528,119 +10750,119 @@
       <c r="C78" t="s">
         <v>142</v>
       </c>
-      <c r="D78">
-        <v>16000</v>
-      </c>
-      <c r="E78">
-        <v>0.25</v>
-      </c>
-      <c r="F78">
-        <v>48704</v>
+      <c r="D78" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" t="s">
+        <v>155</v>
       </c>
       <c r="G78" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I78">
-        <v>0.7756999999999999</v>
+        <v>21.8086</v>
       </c>
       <c r="J78">
-        <v>0.8167</v>
+        <v>22.9629</v>
       </c>
       <c r="K78">
-        <v>0.755</v>
+        <v>21.229</v>
       </c>
       <c r="L78">
-        <v>0.8524</v>
+        <v>23.9667</v>
       </c>
       <c r="M78">
-        <v>0.9069</v>
+        <v>25.4975</v>
       </c>
       <c r="N78">
-        <v>0.9202</v>
+        <v>25.874</v>
       </c>
       <c r="O78">
-        <v>0.9499</v>
+        <v>26.708</v>
       </c>
       <c r="P78">
-        <v>0.9796</v>
+        <v>27.5425</v>
       </c>
       <c r="Q78">
-        <v>1.0076</v>
+        <v>28.3295</v>
       </c>
       <c r="R78">
-        <v>1.0359</v>
+        <v>29.1265</v>
       </c>
       <c r="S78">
-        <v>1.0659</v>
+        <v>29.9702</v>
       </c>
       <c r="T78">
-        <v>1.0948</v>
+        <v>30.781</v>
       </c>
       <c r="U78">
-        <v>1.1234</v>
+        <v>31.5869</v>
       </c>
       <c r="V78">
-        <v>1.1494</v>
+        <v>32.3163</v>
       </c>
       <c r="W78">
-        <v>1.1758</v>
+        <v>33.0584</v>
       </c>
       <c r="X78">
-        <v>1.2026</v>
+        <v>33.8133</v>
       </c>
       <c r="Y78">
-        <v>1.2299</v>
+        <v>34.5812</v>
       </c>
       <c r="Z78">
-        <v>1.2577</v>
+        <v>35.3621</v>
       </c>
       <c r="AA78">
-        <v>1.2811</v>
+        <v>36.0203</v>
       </c>
       <c r="AB78">
-        <v>1.3048</v>
+        <v>36.6877</v>
       </c>
       <c r="AC78">
-        <v>1.3289</v>
+        <v>37.3644</v>
       </c>
       <c r="AD78">
-        <v>1.3533</v>
+        <v>38.0505</v>
       </c>
       <c r="AE78">
-        <v>1.3781</v>
+        <v>38.7461</v>
       </c>
       <c r="AF78">
-        <v>1.3981</v>
+        <v>39.3108</v>
       </c>
       <c r="AG78">
-        <v>1.4184</v>
+        <v>39.8817</v>
       </c>
       <c r="AH78">
-        <v>1.439</v>
+        <v>40.4589</v>
       </c>
       <c r="AI78">
-        <v>1.4597</v>
+        <v>41.0423</v>
       </c>
       <c r="AJ78">
-        <v>1.4807</v>
+        <v>41.6321</v>
       </c>
       <c r="AK78">
-        <v>1.497</v>
+        <v>42.0899</v>
       </c>
       <c r="AL78">
-        <v>1.5134</v>
+        <v>42.5514</v>
       </c>
       <c r="AM78">
-        <v>1.53</v>
+        <v>43.0168</v>
       </c>
       <c r="AN78">
-        <v>1.5466</v>
+        <v>43.486</v>
       </c>
       <c r="AO78">
-        <v>1.5635</v>
+        <v>43.9591</v>
       </c>
       <c r="AP78" t="s">
         <v>167</v>
@@ -10657,13 +10879,13 @@
         <v>143</v>
       </c>
       <c r="D79">
-        <v>10367</v>
+        <v>4960</v>
       </c>
       <c r="E79">
         <v>14.3</v>
       </c>
       <c r="F79">
-        <v>65460</v>
+        <v>33000</v>
       </c>
       <c r="G79" t="s">
         <v>158</v>
@@ -10672,106 +10894,106 @@
         <v>165</v>
       </c>
       <c r="I79">
-        <v>0.6786</v>
+        <v>0.1637</v>
       </c>
       <c r="J79">
-        <v>0.7145</v>
+        <v>0.1723</v>
       </c>
       <c r="K79">
-        <v>0.6606</v>
+        <v>0.1593</v>
       </c>
       <c r="L79">
-        <v>0.7458</v>
+        <v>0.1798</v>
       </c>
       <c r="M79">
-        <v>0.7934</v>
+        <v>0.1913</v>
       </c>
       <c r="N79">
-        <v>0.8051</v>
+        <v>0.1941</v>
       </c>
       <c r="O79">
-        <v>0.8310999999999999</v>
+        <v>0.2004</v>
       </c>
       <c r="P79">
-        <v>0.8571</v>
+        <v>0.2067</v>
       </c>
       <c r="Q79">
-        <v>0.8815</v>
+        <v>0.2126</v>
       </c>
       <c r="R79">
-        <v>0.9063</v>
+        <v>0.2186</v>
       </c>
       <c r="S79">
-        <v>0.9326</v>
+        <v>0.2249</v>
       </c>
       <c r="T79">
-        <v>0.9578</v>
+        <v>0.231</v>
       </c>
       <c r="U79">
-        <v>0.9829</v>
+        <v>0.237</v>
       </c>
       <c r="V79">
-        <v>1.0056</v>
+        <v>0.2425</v>
       </c>
       <c r="W79">
-        <v>1.0287</v>
+        <v>0.2481</v>
       </c>
       <c r="X79">
-        <v>1.0522</v>
+        <v>0.2537</v>
       </c>
       <c r="Y79">
-        <v>1.0761</v>
+        <v>0.2595</v>
       </c>
       <c r="Z79">
-        <v>1.1004</v>
+        <v>0.2653</v>
       </c>
       <c r="AA79">
-        <v>1.1209</v>
+        <v>0.2703</v>
       </c>
       <c r="AB79">
-        <v>1.1416</v>
+        <v>0.2753</v>
       </c>
       <c r="AC79">
-        <v>1.1627</v>
+        <v>0.2804</v>
       </c>
       <c r="AD79">
-        <v>1.184</v>
+        <v>0.2855</v>
       </c>
       <c r="AE79">
-        <v>1.2057</v>
+        <v>0.2907</v>
       </c>
       <c r="AF79">
-        <v>1.2232</v>
+        <v>0.295</v>
       </c>
       <c r="AG79">
-        <v>1.241</v>
+        <v>0.2993</v>
       </c>
       <c r="AH79">
-        <v>1.259</v>
+        <v>0.3036</v>
       </c>
       <c r="AI79">
-        <v>1.2771</v>
+        <v>0.308</v>
       </c>
       <c r="AJ79">
-        <v>1.2955</v>
+        <v>0.3124</v>
       </c>
       <c r="AK79">
-        <v>1.3097</v>
+        <v>0.3158</v>
       </c>
       <c r="AL79">
-        <v>1.3241</v>
+        <v>0.3193</v>
       </c>
       <c r="AM79">
-        <v>1.3386</v>
+        <v>0.3228</v>
       </c>
       <c r="AN79">
-        <v>1.3532</v>
+        <v>0.3263</v>
       </c>
       <c r="AO79">
-        <v>1.3679</v>
+        <v>0.3298</v>
       </c>
       <c r="AP79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:42">
@@ -10785,13 +11007,13 @@
         <v>144</v>
       </c>
       <c r="D80">
-        <v>89530</v>
+        <v>95059</v>
       </c>
       <c r="E80">
         <v>4.6365</v>
       </c>
       <c r="F80">
-        <v>45876</v>
+        <v>44000</v>
       </c>
       <c r="G80" t="s">
         <v>158</v>
@@ -10800,106 +11022,106 @@
         <v>165</v>
       </c>
       <c r="I80">
-        <v>4.1074</v>
+        <v>4.1826</v>
       </c>
       <c r="J80">
-        <v>4.3248</v>
+        <v>4.4039</v>
       </c>
       <c r="K80">
-        <v>3.9983</v>
+        <v>4.0714</v>
       </c>
       <c r="L80">
-        <v>4.5139</v>
+        <v>4.5964</v>
       </c>
       <c r="M80">
-        <v>4.8022</v>
+        <v>4.89</v>
       </c>
       <c r="N80">
-        <v>4.8731</v>
+        <v>4.9622</v>
       </c>
       <c r="O80">
-        <v>5.0302</v>
+        <v>5.1221</v>
       </c>
       <c r="P80">
-        <v>5.1873</v>
+        <v>5.2822</v>
       </c>
       <c r="Q80">
-        <v>5.3356</v>
+        <v>5.4331</v>
       </c>
       <c r="R80">
-        <v>5.4857</v>
+        <v>5.586</v>
       </c>
       <c r="S80">
-        <v>5.6446</v>
+        <v>5.7478</v>
       </c>
       <c r="T80">
-        <v>5.7973</v>
+        <v>5.9033</v>
       </c>
       <c r="U80">
-        <v>5.949</v>
+        <v>6.0578</v>
       </c>
       <c r="V80">
-        <v>6.0864</v>
+        <v>6.1977</v>
       </c>
       <c r="W80">
-        <v>6.2262</v>
+        <v>6.34</v>
       </c>
       <c r="X80">
-        <v>6.3684</v>
+        <v>6.4848</v>
       </c>
       <c r="Y80">
-        <v>6.513</v>
+        <v>6.6321</v>
       </c>
       <c r="Z80">
-        <v>6.6601</v>
+        <v>6.7818</v>
       </c>
       <c r="AA80">
-        <v>6.784</v>
+        <v>6.9081</v>
       </c>
       <c r="AB80">
-        <v>6.9097</v>
+        <v>7.0361</v>
       </c>
       <c r="AC80">
-        <v>7.0372</v>
+        <v>7.1658</v>
       </c>
       <c r="AD80">
-        <v>7.1664</v>
+        <v>7.2974</v>
       </c>
       <c r="AE80">
-        <v>7.2974</v>
+        <v>7.4308</v>
       </c>
       <c r="AF80">
-        <v>7.4038</v>
+        <v>7.5391</v>
       </c>
       <c r="AG80">
-        <v>7.5113</v>
+        <v>7.6486</v>
       </c>
       <c r="AH80">
-        <v>7.62</v>
+        <v>7.7593</v>
       </c>
       <c r="AI80">
-        <v>7.7299</v>
+        <v>7.8712</v>
       </c>
       <c r="AJ80">
-        <v>7.841</v>
+        <v>7.9843</v>
       </c>
       <c r="AK80">
-        <v>7.9272</v>
+        <v>8.072100000000001</v>
       </c>
       <c r="AL80">
-        <v>8.014099999999999</v>
+        <v>8.160600000000001</v>
       </c>
       <c r="AM80">
-        <v>8.101800000000001</v>
+        <v>8.2499</v>
       </c>
       <c r="AN80">
-        <v>8.190099999999999</v>
+        <v>8.3399</v>
       </c>
       <c r="AO80">
-        <v>8.279199999999999</v>
+        <v>8.4306</v>
       </c>
       <c r="AP80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:42">
@@ -10912,14 +11134,14 @@
       <c r="C81" t="s">
         <v>145</v>
       </c>
-      <c r="D81" t="s">
-        <v>156</v>
-      </c>
-      <c r="E81" t="s">
-        <v>156</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>1.75</v>
+      </c>
+      <c r="F81">
+        <v>175200</v>
       </c>
       <c r="G81" t="s">
         <v>158</v>
@@ -10928,103 +11150,106 @@
         <v>165</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>0.0712</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>0.0781</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>0.083</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>0.0843</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>0.0897</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>0.0949</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>0.09760000000000001</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>0.1003</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>0.1029</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>0.1053</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>0.1077</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>0.1101</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>0.1126</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.1152</v>
       </c>
       <c r="AA81">
-        <v>0</v>
+        <v>0.1173</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>0.1195</v>
       </c>
       <c r="AC81">
-        <v>0</v>
+        <v>0.1217</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>0.1239</v>
       </c>
       <c r="AE81">
-        <v>0</v>
+        <v>0.1262</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="AG81">
-        <v>0</v>
+        <v>0.1299</v>
       </c>
       <c r="AH81">
-        <v>0</v>
+        <v>0.1318</v>
       </c>
       <c r="AI81">
-        <v>0</v>
+        <v>0.1337</v>
       </c>
       <c r="AJ81">
-        <v>0</v>
+        <v>0.1356</v>
       </c>
       <c r="AK81">
-        <v>0</v>
+        <v>0.1371</v>
       </c>
       <c r="AL81">
-        <v>0</v>
+        <v>0.1386</v>
       </c>
       <c r="AM81">
-        <v>0</v>
+        <v>0.1401</v>
       </c>
       <c r="AN81">
-        <v>0</v>
+        <v>0.1416</v>
       </c>
       <c r="AO81">
-        <v>0</v>
+        <v>0.1432</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:42">
@@ -11037,14 +11262,14 @@
       <c r="C82" t="s">
         <v>146</v>
       </c>
-      <c r="D82" t="s">
-        <v>156</v>
-      </c>
-      <c r="E82" t="s">
-        <v>156</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>43.99</v>
+      </c>
+      <c r="F82">
+        <v>849720</v>
       </c>
       <c r="G82" t="s">
         <v>158</v>
@@ -11053,103 +11278,106 @@
         <v>165</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>0.0439</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>0.0406</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>0.0458</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>0.0487</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>0.0495</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.0511</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>0.0527</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>0.0542</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>0.0557</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>0.0573</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="U82">
-        <v>0</v>
+        <v>0.0604</v>
       </c>
       <c r="V82">
-        <v>0</v>
+        <v>0.0618</v>
       </c>
       <c r="W82">
-        <v>0</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="X82">
-        <v>0</v>
+        <v>0.0646</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="AA82">
-        <v>0</v>
+        <v>0.0689</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>0.0701</v>
       </c>
       <c r="AC82">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="AD82">
-        <v>0</v>
+        <v>0.0727</v>
       </c>
       <c r="AE82">
-        <v>0</v>
+        <v>0.0741</v>
       </c>
       <c r="AF82">
-        <v>0</v>
+        <v>0.0752</v>
       </c>
       <c r="AG82">
-        <v>0</v>
+        <v>0.0762</v>
       </c>
       <c r="AH82">
-        <v>0</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="AI82">
-        <v>0</v>
+        <v>0.0785</v>
       </c>
       <c r="AJ82">
-        <v>0</v>
+        <v>0.0796</v>
       </c>
       <c r="AK82">
-        <v>0</v>
+        <v>0.0805</v>
       </c>
       <c r="AL82">
-        <v>0</v>
+        <v>0.0813</v>
       </c>
       <c r="AM82">
-        <v>0</v>
+        <v>0.0822</v>
       </c>
       <c r="AN82">
-        <v>0</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="AO82">
-        <v>0</v>
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:42">
@@ -11178,103 +11406,106 @@
         <v>164</v>
       </c>
       <c r="I83">
-        <v>14.556</v>
+        <v>0.5332</v>
       </c>
       <c r="J83">
-        <v>15.3264</v>
+        <v>0.5615</v>
       </c>
       <c r="K83">
-        <v>14.1691</v>
+        <v>0.5191</v>
       </c>
       <c r="L83">
-        <v>15.9964</v>
+        <v>0.586</v>
       </c>
       <c r="M83">
-        <v>17.0182</v>
+        <v>0.6234</v>
       </c>
       <c r="N83">
-        <v>17.2695</v>
+        <v>0.6327</v>
       </c>
       <c r="O83">
-        <v>17.8261</v>
+        <v>0.653</v>
       </c>
       <c r="P83">
-        <v>18.3831</v>
+        <v>0.6734</v>
       </c>
       <c r="Q83">
-        <v>18.9083</v>
+        <v>0.6927</v>
       </c>
       <c r="R83">
-        <v>19.4403</v>
+        <v>0.7122000000000001</v>
       </c>
       <c r="S83">
-        <v>20.0034</v>
+        <v>0.7328</v>
       </c>
       <c r="T83">
-        <v>20.5446</v>
+        <v>0.7526</v>
       </c>
       <c r="U83">
-        <v>21.0824</v>
+        <v>0.7723</v>
       </c>
       <c r="V83">
-        <v>21.5693</v>
+        <v>0.7902</v>
       </c>
       <c r="W83">
-        <v>22.0646</v>
+        <v>0.8083</v>
       </c>
       <c r="X83">
-        <v>22.5685</v>
+        <v>0.8268</v>
       </c>
       <c r="Y83">
-        <v>23.081</v>
+        <v>0.8456</v>
       </c>
       <c r="Z83">
-        <v>23.6022</v>
+        <v>0.8646</v>
       </c>
       <c r="AA83">
-        <v>24.0415</v>
+        <v>0.8807</v>
       </c>
       <c r="AB83">
-        <v>24.487</v>
+        <v>0.8971</v>
       </c>
       <c r="AC83">
-        <v>24.9386</v>
+        <v>0.9136</v>
       </c>
       <c r="AD83">
-        <v>25.3966</v>
+        <v>0.9304</v>
       </c>
       <c r="AE83">
-        <v>25.8608</v>
+        <v>0.9474</v>
       </c>
       <c r="AF83">
-        <v>26.2377</v>
+        <v>0.9612000000000001</v>
       </c>
       <c r="AG83">
-        <v>26.6188</v>
+        <v>0.9752</v>
       </c>
       <c r="AH83">
-        <v>27.004</v>
+        <v>0.9893</v>
       </c>
       <c r="AI83">
-        <v>27.3934</v>
+        <v>1.0035</v>
       </c>
       <c r="AJ83">
-        <v>27.787</v>
+        <v>1.018</v>
       </c>
       <c r="AK83">
-        <v>28.0926</v>
+        <v>1.0291</v>
       </c>
       <c r="AL83">
-        <v>28.4007</v>
+        <v>1.0404</v>
       </c>
       <c r="AM83">
-        <v>28.7113</v>
+        <v>1.0518</v>
       </c>
       <c r="AN83">
-        <v>29.0245</v>
+        <v>1.0633</v>
       </c>
       <c r="AO83">
-        <v>29.3402</v>
+        <v>1.0749</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:42">
@@ -11288,13 +11519,13 @@
         <v>148</v>
       </c>
       <c r="D84">
-        <v>15550</v>
+        <v>1130</v>
       </c>
       <c r="E84">
         <v>14.3</v>
       </c>
       <c r="F84">
-        <v>65460</v>
+        <v>33000</v>
       </c>
       <c r="G84" t="s">
         <v>158</v>
@@ -11303,106 +11534,106 @@
         <v>165</v>
       </c>
       <c r="I84">
-        <v>1.0179</v>
+        <v>0.0373</v>
       </c>
       <c r="J84">
-        <v>1.0718</v>
+        <v>0.0393</v>
       </c>
       <c r="K84">
-        <v>0.9908</v>
+        <v>0.0363</v>
       </c>
       <c r="L84">
-        <v>1.1186</v>
+        <v>0.041</v>
       </c>
       <c r="M84">
-        <v>1.1901</v>
+        <v>0.0436</v>
       </c>
       <c r="N84">
-        <v>1.2077</v>
+        <v>0.0442</v>
       </c>
       <c r="O84">
-        <v>1.2466</v>
+        <v>0.0457</v>
       </c>
       <c r="P84">
-        <v>1.2855</v>
+        <v>0.0471</v>
       </c>
       <c r="Q84">
-        <v>1.3223</v>
+        <v>0.0484</v>
       </c>
       <c r="R84">
-        <v>1.3595</v>
+        <v>0.0498</v>
       </c>
       <c r="S84">
-        <v>1.3988</v>
+        <v>0.0512</v>
       </c>
       <c r="T84">
-        <v>1.4367</v>
+        <v>0.0526</v>
       </c>
       <c r="U84">
-        <v>1.4743</v>
+        <v>0.054</v>
       </c>
       <c r="V84">
-        <v>1.5083</v>
+        <v>0.0553</v>
       </c>
       <c r="W84">
-        <v>1.543</v>
+        <v>0.0565</v>
       </c>
       <c r="X84">
-        <v>1.5782</v>
+        <v>0.0578</v>
       </c>
       <c r="Y84">
-        <v>1.6141</v>
+        <v>0.0591</v>
       </c>
       <c r="Z84">
-        <v>1.6505</v>
+        <v>0.0605</v>
       </c>
       <c r="AA84">
-        <v>1.6812</v>
+        <v>0.0616</v>
       </c>
       <c r="AB84">
-        <v>1.7124</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="AC84">
-        <v>1.744</v>
+        <v>0.0639</v>
       </c>
       <c r="AD84">
-        <v>1.776</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="AE84">
-        <v>1.8084</v>
+        <v>0.0663</v>
       </c>
       <c r="AF84">
-        <v>1.8348</v>
+        <v>0.0672</v>
       </c>
       <c r="AG84">
-        <v>1.8615</v>
+        <v>0.0682</v>
       </c>
       <c r="AH84">
-        <v>1.8884</v>
+        <v>0.0692</v>
       </c>
       <c r="AI84">
-        <v>1.9156</v>
+        <v>0.0702</v>
       </c>
       <c r="AJ84">
-        <v>1.9431</v>
+        <v>0.0712</v>
       </c>
       <c r="AK84">
-        <v>1.9645</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AL84">
-        <v>1.9861</v>
+        <v>0.0728</v>
       </c>
       <c r="AM84">
-        <v>2.0078</v>
+        <v>0.0736</v>
       </c>
       <c r="AN84">
-        <v>2.0297</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AO84">
-        <v>2.0518</v>
+        <v>0.0752</v>
       </c>
       <c r="AP84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:42">
@@ -11431,103 +11662,106 @@
         <v>166</v>
       </c>
       <c r="I85">
-        <v>12.511</v>
+        <v>2.3114</v>
       </c>
       <c r="J85">
-        <v>13.1732</v>
+        <v>2.4338</v>
       </c>
       <c r="K85">
-        <v>12.1785</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>13.7491</v>
+        <v>2.5402</v>
       </c>
       <c r="M85">
-        <v>14.6272</v>
+        <v>2.7024</v>
       </c>
       <c r="N85">
-        <v>14.8432</v>
+        <v>2.7423</v>
       </c>
       <c r="O85">
-        <v>15.3216</v>
+        <v>2.8307</v>
       </c>
       <c r="P85">
-        <v>15.8004</v>
+        <v>2.9191</v>
       </c>
       <c r="Q85">
-        <v>16.2518</v>
+        <v>3.0026</v>
       </c>
       <c r="R85">
-        <v>16.7091</v>
+        <v>3.087</v>
       </c>
       <c r="S85">
-        <v>17.1931</v>
+        <v>3.1764</v>
       </c>
       <c r="T85">
-        <v>17.6582</v>
+        <v>3.2624</v>
       </c>
       <c r="U85">
-        <v>18.1205</v>
+        <v>3.3478</v>
       </c>
       <c r="V85">
-        <v>18.539</v>
+        <v>3.4251</v>
       </c>
       <c r="W85">
-        <v>18.9647</v>
+        <v>3.5038</v>
       </c>
       <c r="X85">
-        <v>19.3978</v>
+        <v>3.5838</v>
       </c>
       <c r="Y85">
-        <v>19.8383</v>
+        <v>3.6651</v>
       </c>
       <c r="Z85">
-        <v>20.2863</v>
+        <v>3.7479</v>
       </c>
       <c r="AA85">
-        <v>20.6639</v>
+        <v>3.8177</v>
       </c>
       <c r="AB85">
-        <v>21.0467</v>
+        <v>3.8884</v>
       </c>
       <c r="AC85">
-        <v>21.435</v>
+        <v>3.9601</v>
       </c>
       <c r="AD85">
-        <v>21.8286</v>
+        <v>4.0329</v>
       </c>
       <c r="AE85">
-        <v>22.2276</v>
+        <v>4.1066</v>
       </c>
       <c r="AF85">
-        <v>22.5515</v>
+        <v>4.1664</v>
       </c>
       <c r="AG85">
-        <v>22.8791</v>
+        <v>4.2269</v>
       </c>
       <c r="AH85">
-        <v>23.2102</v>
+        <v>4.2881</v>
       </c>
       <c r="AI85">
-        <v>23.5449</v>
+        <v>4.3499</v>
       </c>
       <c r="AJ85">
-        <v>23.8832</v>
+        <v>4.4125</v>
       </c>
       <c r="AK85">
-        <v>24.1458</v>
+        <v>4.461</v>
       </c>
       <c r="AL85">
-        <v>24.4106</v>
+        <v>4.5099</v>
       </c>
       <c r="AM85">
-        <v>24.6776</v>
+        <v>4.5592</v>
       </c>
       <c r="AN85">
-        <v>24.9468</v>
+        <v>4.6089</v>
       </c>
       <c r="AO85">
-        <v>25.2181</v>
+        <v>4.6591</v>
+      </c>
+      <c r="AP85" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:42">
@@ -11541,13 +11775,13 @@
         <v>150</v>
       </c>
       <c r="D86">
-        <v>25294</v>
+        <v>23013</v>
       </c>
       <c r="E86">
         <v>11.16</v>
       </c>
       <c r="F86">
-        <v>44321</v>
+        <v>9000</v>
       </c>
       <c r="G86" t="s">
         <v>158</v>
@@ -11556,106 +11790,106 @@
         <v>165</v>
       </c>
       <c r="I86">
-        <v>1.1211</v>
+        <v>0.2071</v>
       </c>
       <c r="J86">
-        <v>1.1804</v>
+        <v>0.2181</v>
       </c>
       <c r="K86">
-        <v>1.0913</v>
+        <v>0.2016</v>
       </c>
       <c r="L86">
-        <v>1.232</v>
+        <v>0.2276</v>
       </c>
       <c r="M86">
-        <v>1.3107</v>
+        <v>0.2422</v>
       </c>
       <c r="N86">
-        <v>1.33</v>
+        <v>0.2457</v>
       </c>
       <c r="O86">
-        <v>1.3729</v>
+        <v>0.2536</v>
       </c>
       <c r="P86">
-        <v>1.4158</v>
+        <v>0.2616</v>
       </c>
       <c r="Q86">
-        <v>1.4563</v>
+        <v>0.2691</v>
       </c>
       <c r="R86">
-        <v>1.4972</v>
+        <v>0.2766</v>
       </c>
       <c r="S86">
-        <v>1.5406</v>
+        <v>0.2846</v>
       </c>
       <c r="T86">
-        <v>1.5823</v>
+        <v>0.2923</v>
       </c>
       <c r="U86">
-        <v>1.6237</v>
+        <v>0.3</v>
       </c>
       <c r="V86">
-        <v>1.6612</v>
+        <v>0.3069</v>
       </c>
       <c r="W86">
-        <v>1.6993</v>
+        <v>0.314</v>
       </c>
       <c r="X86">
-        <v>1.7382</v>
+        <v>0.3211</v>
       </c>
       <c r="Y86">
-        <v>1.7776</v>
+        <v>0.3284</v>
       </c>
       <c r="Z86">
-        <v>1.8178</v>
+        <v>0.3358</v>
       </c>
       <c r="AA86">
-        <v>1.8516</v>
+        <v>0.3421</v>
       </c>
       <c r="AB86">
-        <v>1.8859</v>
+        <v>0.3484</v>
       </c>
       <c r="AC86">
-        <v>1.9207</v>
+        <v>0.3548</v>
       </c>
       <c r="AD86">
-        <v>1.956</v>
+        <v>0.3614</v>
       </c>
       <c r="AE86">
-        <v>1.9917</v>
+        <v>0.368</v>
       </c>
       <c r="AF86">
-        <v>2.0207</v>
+        <v>0.3733</v>
       </c>
       <c r="AG86">
-        <v>2.0501</v>
+        <v>0.3788</v>
       </c>
       <c r="AH86">
-        <v>2.0798</v>
+        <v>0.3842</v>
       </c>
       <c r="AI86">
-        <v>2.1098</v>
+        <v>0.3898</v>
       </c>
       <c r="AJ86">
-        <v>2.1401</v>
+        <v>0.3954</v>
       </c>
       <c r="AK86">
-        <v>2.1636</v>
+        <v>0.3997</v>
       </c>
       <c r="AL86">
-        <v>2.1873</v>
+        <v>0.4041</v>
       </c>
       <c r="AM86">
-        <v>2.2113</v>
+        <v>0.4085</v>
       </c>
       <c r="AN86">
-        <v>2.2354</v>
+        <v>0.413</v>
       </c>
       <c r="AO86">
-        <v>2.2597</v>
+        <v>0.4175</v>
       </c>
       <c r="AP86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:42">
@@ -11782,6 +12016,9 @@
       <c r="AO87">
         <v>0</v>
       </c>
+      <c r="AP87" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="88" spans="1:42">
       <c r="A88" t="s">
@@ -11809,103 +12046,106 @@
         <v>166</v>
       </c>
       <c r="I88">
-        <v>15.461</v>
+        <v>7.6003</v>
       </c>
       <c r="J88">
-        <v>16.2793</v>
+        <v>8.0025</v>
       </c>
       <c r="K88">
-        <v>15.0501</v>
+        <v>7.3983</v>
       </c>
       <c r="L88">
-        <v>16.991</v>
+        <v>8.352399999999999</v>
       </c>
       <c r="M88">
-        <v>18.0762</v>
+        <v>8.885899999999999</v>
       </c>
       <c r="N88">
-        <v>18.3432</v>
+        <v>9.017099999999999</v>
       </c>
       <c r="O88">
-        <v>18.9344</v>
+        <v>9.307700000000001</v>
       </c>
       <c r="P88">
-        <v>19.526</v>
+        <v>9.598599999999999</v>
       </c>
       <c r="Q88">
-        <v>20.0839</v>
+        <v>9.8728</v>
       </c>
       <c r="R88">
-        <v>20.649</v>
+        <v>10.1506</v>
       </c>
       <c r="S88">
-        <v>21.2471</v>
+        <v>10.4446</v>
       </c>
       <c r="T88">
-        <v>21.8219</v>
+        <v>10.7272</v>
       </c>
       <c r="U88">
-        <v>22.3932</v>
+        <v>11.008</v>
       </c>
       <c r="V88">
-        <v>22.9103</v>
+        <v>11.2622</v>
       </c>
       <c r="W88">
-        <v>23.4365</v>
+        <v>11.5208</v>
       </c>
       <c r="X88">
-        <v>23.9716</v>
+        <v>11.7839</v>
       </c>
       <c r="Y88">
-        <v>24.516</v>
+        <v>12.0515</v>
       </c>
       <c r="Z88">
-        <v>25.0696</v>
+        <v>12.3237</v>
       </c>
       <c r="AA88">
-        <v>25.5363</v>
+        <v>12.553</v>
       </c>
       <c r="AB88">
-        <v>26.0094</v>
+        <v>12.7856</v>
       </c>
       <c r="AC88">
-        <v>26.4892</v>
+        <v>13.0215</v>
       </c>
       <c r="AD88">
-        <v>26.9756</v>
+        <v>13.2606</v>
       </c>
       <c r="AE88">
-        <v>27.4687</v>
+        <v>13.503</v>
       </c>
       <c r="AF88">
-        <v>27.869</v>
+        <v>13.6998</v>
       </c>
       <c r="AG88">
-        <v>28.2738</v>
+        <v>13.8987</v>
       </c>
       <c r="AH88">
-        <v>28.6829</v>
+        <v>14.0999</v>
       </c>
       <c r="AI88">
-        <v>29.0966</v>
+        <v>14.3032</v>
       </c>
       <c r="AJ88">
-        <v>29.5147</v>
+        <v>14.5087</v>
       </c>
       <c r="AK88">
-        <v>29.8392</v>
+        <v>14.6683</v>
       </c>
       <c r="AL88">
-        <v>30.1664</v>
+        <v>14.8291</v>
       </c>
       <c r="AM88">
-        <v>30.4964</v>
+        <v>14.9913</v>
       </c>
       <c r="AN88">
-        <v>30.829</v>
+        <v>15.1548</v>
       </c>
       <c r="AO88">
-        <v>31.1644</v>
+        <v>15.3197</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:42">
@@ -11919,13 +12159,13 @@
         <v>153</v>
       </c>
       <c r="D89">
-        <v>477365</v>
+        <v>454019</v>
       </c>
       <c r="E89">
         <v>1.86</v>
       </c>
       <c r="F89">
-        <v>17413</v>
+        <v>9000</v>
       </c>
       <c r="G89" t="s">
         <v>158</v>
@@ -11934,106 +12174,106 @@
         <v>165</v>
       </c>
       <c r="I89">
-        <v>8.3124</v>
+        <v>4.0862</v>
       </c>
       <c r="J89">
-        <v>8.7523</v>
+        <v>4.3024</v>
       </c>
       <c r="K89">
-        <v>8.0915</v>
+        <v>3.9776</v>
       </c>
       <c r="L89">
-        <v>9.1349</v>
+        <v>4.4905</v>
       </c>
       <c r="M89">
-        <v>9.718400000000001</v>
+        <v>4.7774</v>
       </c>
       <c r="N89">
-        <v>9.8619</v>
+        <v>4.8479</v>
       </c>
       <c r="O89">
-        <v>10.1798</v>
+        <v>5.0041</v>
       </c>
       <c r="P89">
-        <v>10.4978</v>
+        <v>5.1605</v>
       </c>
       <c r="Q89">
-        <v>10.7978</v>
+        <v>5.308</v>
       </c>
       <c r="R89">
-        <v>11.1016</v>
+        <v>5.4573</v>
       </c>
       <c r="S89">
-        <v>11.4232</v>
+        <v>5.6154</v>
       </c>
       <c r="T89">
-        <v>11.7322</v>
+        <v>5.7673</v>
       </c>
       <c r="U89">
-        <v>12.0394</v>
+        <v>5.9183</v>
       </c>
       <c r="V89">
-        <v>12.3174</v>
+        <v>6.0549</v>
       </c>
       <c r="W89">
-        <v>12.6003</v>
+        <v>6.194</v>
       </c>
       <c r="X89">
-        <v>12.888</v>
+        <v>6.3354</v>
       </c>
       <c r="Y89">
-        <v>13.1806</v>
+        <v>6.4793</v>
       </c>
       <c r="Z89">
-        <v>13.4783</v>
+        <v>6.6256</v>
       </c>
       <c r="AA89">
-        <v>13.7292</v>
+        <v>6.7489</v>
       </c>
       <c r="AB89">
-        <v>13.9835</v>
+        <v>6.874</v>
       </c>
       <c r="AC89">
-        <v>14.2415</v>
+        <v>7.0008</v>
       </c>
       <c r="AD89">
-        <v>14.503</v>
+        <v>7.1294</v>
       </c>
       <c r="AE89">
-        <v>14.7681</v>
+        <v>7.2597</v>
       </c>
       <c r="AF89">
-        <v>14.9833</v>
+        <v>7.3655</v>
       </c>
       <c r="AG89">
-        <v>15.201</v>
+        <v>7.4724</v>
       </c>
       <c r="AH89">
-        <v>15.4209</v>
+        <v>7.5806</v>
       </c>
       <c r="AI89">
-        <v>15.6433</v>
+        <v>7.6899</v>
       </c>
       <c r="AJ89">
-        <v>15.8681</v>
+        <v>7.8004</v>
       </c>
       <c r="AK89">
-        <v>16.0426</v>
+        <v>7.8862</v>
       </c>
       <c r="AL89">
-        <v>16.2185</v>
+        <v>7.9726</v>
       </c>
       <c r="AM89">
-        <v>16.3959</v>
+        <v>8.059799999999999</v>
       </c>
       <c r="AN89">
-        <v>16.5747</v>
+        <v>8.1477</v>
       </c>
       <c r="AO89">
-        <v>16.7551</v>
+        <v>8.2364</v>
       </c>
       <c r="AP89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:42">
@@ -12160,8 +12400,273 @@
       <c r="AO90">
         <v>0</v>
       </c>
+      <c r="AP90" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694dc5982778b78571808a8a0bab1175">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac46d101c58d29857918b5bc3d6299d1" ns2:_="" ns3:_="">
+    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{731ADA03-DEC4-4707-B915-AB174D0D2596}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F886B30-F32F-4730-A6BA-3334C28A9A49}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11712565-BA35-4FF0-AC39-7ED5CB558B4C}"/>
 </file>